--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail0 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P37_trail0 Features.xlsx
@@ -3003,7 +3003,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3014,29 +3014,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3057,115 +3055,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -3182,72 +3170,66 @@
         <v>2.220829002986961e-05</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>3.76748193358077</v>
+        <v>0.0001441856451407874</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>14.66868941524606</v>
+        <v>1.196110008742546e-05</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.0001441856451407874</v>
+        <v>-0.1083163573275279</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>1.196110008742546e-05</v>
+        <v>0.3141294179261299</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.1083163573275279</v>
+        <v>0.11013860544233</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.3141294179261299</v>
+        <v>1.784477173239614</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.11013860544233</v>
+        <v>1.63909249790044</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.731750101279829</v>
+        <v>4.408320601381778</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.63909249790044</v>
+        <v>2.55373615371851e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>4.408320601381778</v>
+        <v>92266618.89111359</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>2.55373615371851e-15</v>
+        <v>1.256892153942173e-06</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>92266618.89111359</v>
+        <v>21.74028521050093</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.256892153942173e-06</v>
+        <v>0.0001473998224875324</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>21.74028521050093</v>
+        <v>10.10848323435816</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001473998224875324</v>
+        <v>1.14180189480299</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.10848323435816</v>
+        <v>0.01506152512983844</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.14180189480299</v>
+        <v>2.832216338220442</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01506152512983844</v>
+        <v>0.9629459721395699</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.832216338220442</v>
+        <v>1.699775308525063</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9629459721395699</v>
+        <v>8</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.699775308525063</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.2611941542930351</v>
       </c>
     </row>
@@ -3262,72 +3244,66 @@
         <v>1.622405402598071e-05</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>3.764986686292497</v>
+        <v>0.0001053240878095743</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>14.64900446678863</v>
+        <v>9.899166111487026e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.0001053240878095743</v>
+        <v>-0.1082936770943803</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>9.899166111487026e-06</v>
+        <v>0.3138382015459031</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.1082936770943803</v>
+        <v>0.1099537494153496</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.3138382015459031</v>
+        <v>1.764001465798474</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.1099537494153496</v>
+        <v>1.61583155226301</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.698399216067295</v>
+        <v>4.278642598393444</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.61583155226301</v>
+        <v>2.615834890081333e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.278642598393444</v>
+        <v>93441014.09105045</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.615834890081333e-15</v>
+        <v>1.241310843815227e-06</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>93441014.09105045</v>
+        <v>22.83943805563765</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.241310843815227e-06</v>
+        <v>0.0001760969080255943</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>22.83943805563765</v>
+        <v>11.99541688020052</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001760969080255943</v>
+        <v>1.105775231073707</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>11.99541688020052</v>
+        <v>0.02533858869717966</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.105775231073707</v>
+        <v>2.773064912586966</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.02533858869717966</v>
+        <v>0.9646948251989715</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.773064912586966</v>
+        <v>1.766597697836158</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9646948251989715</v>
+        <v>9</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.766597697836158</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.3378364884212098</v>
       </c>
     </row>
@@ -3342,72 +3318,66 @@
         <v>1.185611943317425e-05</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3.761828228558411</v>
+        <v>7.695765268026892e-05</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>14.62309789487892</v>
+        <v>8.39290945833499e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>7.695765268026892e-05</v>
+        <v>-0.1082690270888371</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>8.39290945833499e-06</v>
+        <v>0.3134453768164271</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.1082690270888371</v>
+        <v>0.1097025792188563</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.3134453768164271</v>
+        <v>1.830779427679013</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.1097025792188563</v>
+        <v>1.700320965306903</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.781256762652749</v>
+        <v>3.947439691765973</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.700320965306903</v>
+        <v>2.684920344679008e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.947439691765973</v>
+        <v>90534793.73438832</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.684920344679008e-15</v>
+        <v>1.302941409603234e-06</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>90534793.73438832</v>
+        <v>22.00708083474654</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.302941409603234e-06</v>
+        <v>0.0002319702913787279</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>22.00708083474654</v>
+        <v>9.91947542751973</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002319702913787279</v>
+        <v>1.93951454214111</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.91947542751973</v>
+        <v>0.0228249471103794</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.93951454214111</v>
+        <v>2.964902023632409</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.0228249471103794</v>
+        <v>0.9656576029276054</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.964902023632409</v>
+        <v>1.595921271299756</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9656576029276054</v>
+        <v>6</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.595921271299756</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.3514456156943005</v>
       </c>
     </row>
@@ -3422,72 +3392,66 @@
         <v>8.668149635325066e-06</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>3.758466096642204</v>
+        <v>5.625561751980036e-05</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>14.59632327939234</v>
+        <v>7.2922078465188e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>5.625561751980036e-05</v>
+        <v>-0.1082448390563889</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>7.2922078465188e-06</v>
+        <v>0.3129411237135565</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.1082448390563889</v>
+        <v>0.1093826221531023</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.3129411237135565</v>
+        <v>1.845909025176811</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.1093826221531023</v>
+        <v>1.714937333026778</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.798948985938906</v>
+        <v>4.353707265002805</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.714937333026778</v>
+        <v>1.529746486728487e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>4.353707265002805</v>
+        <v>165793925.7133637</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>1.529746486728487e-15</v>
+        <v>7.194729752649609e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>165793925.7133637</v>
+        <v>42.04909900133244</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>7.194729752649609e-07</v>
+        <v>0.0001248556341947196</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>42.04909900133244</v>
+        <v>7.905640072022357</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001248556341947196</v>
+        <v>1.468514346200049</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>7.905640072022357</v>
+        <v>0.007803370379155898</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.468514346200049</v>
+        <v>3.218305881096557</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.007803370379155898</v>
+        <v>0.9670096843400939</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.218305881096557</v>
+        <v>1.634779353743522</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9670096843400939</v>
+        <v>19</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.634779353743522</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.3593241491428916</v>
       </c>
     </row>
@@ -3502,72 +3466,66 @@
         <v>6.340497420751857e-06</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>3.754952493672848</v>
+        <v>4.115525995630774e-05</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>14.57257161705561</v>
+        <v>6.487369749478265e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>4.115525995630774e-05</v>
+        <v>-0.1082513433661403</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>6.487369749478265e-06</v>
+        <v>0.3125175728733246</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.1082513433661403</v>
+        <v>0.1091205557305775</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.3125175728733246</v>
+        <v>1.864575023579425</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.1091205557305775</v>
+        <v>2.042616375181299</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.82387499194822</v>
+        <v>4.390638370442708</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.042616375181299</v>
+        <v>1.168420258311548e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>4.390638370442708</v>
+        <v>215149619.0013003</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>1.168420258311548e-15</v>
+        <v>5.56568861923019e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>215149619.0013003</v>
+        <v>54.08542428155021</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.56568861923019e-07</v>
+        <v>0.000127054128506994</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>54.08542428155021</v>
+        <v>8.48820457277872</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.000127054128506994</v>
+        <v>1.247900533531671</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>8.48820457277872</v>
+        <v>0.009154201280597008</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.247900533531671</v>
+        <v>2.923747542261845</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.009154201280597008</v>
+        <v>0.9665689896845537</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.923747542261845</v>
+        <v>1.597605680908542</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9665689896845537</v>
+        <v>19</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.597605680908542</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3037186032158495</v>
       </c>
     </row>
@@ -3582,72 +3540,66 @@
         <v>4.639668437844757e-06</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>3.749760680651612</v>
+        <v>3.013000283661498e-05</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>14.54081882409251</v>
+        <v>5.898422583653376e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.013000283661498e-05</v>
+        <v>-0.1082815735445586</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.898422583653376e-06</v>
+        <v>0.3121617090625828</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.1082815735445586</v>
+        <v>0.1089054311752463</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.3121617090625828</v>
+        <v>1.870922616691683</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.1089054311752463</v>
+        <v>1.943596131686711</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.828982903639022</v>
+        <v>4.306043918032374</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.943596131686711</v>
+        <v>1.214779642284006e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.306043918032374</v>
+        <v>205798654.5710334</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>1.214779642284006e-15</v>
+        <v>5.817446316050996e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>205798654.5710334</v>
+        <v>51.44966693190025</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.817446316050996e-07</v>
+        <v>0.0001276911363719044</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>51.44966693190025</v>
+        <v>8.080853389309945</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001276911363719044</v>
+        <v>1.328542585098697</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.080853389309945</v>
+        <v>0.008338255657876938</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.328542585098697</v>
+        <v>2.980316388974106</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.008338255657876938</v>
+        <v>0.9655790639611419</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.980316388974106</v>
+        <v>1.564707586442777</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9655790639611419</v>
+        <v>14</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.564707586442777</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2670731558055316</v>
       </c>
     </row>
@@ -3662,72 +3614,66 @@
         <v>3.396681708753655e-06</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>3.740939767659055</v>
+        <v>2.20689278889643e-05</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>14.48717348387498</v>
+        <v>5.467298112151438e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.20689278889643e-05</v>
+        <v>-0.1082774119186436</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.467298112151438e-06</v>
+        <v>0.3116087936112142</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.1082774119186436</v>
+        <v>0.1085603199472825</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.3116087936112142</v>
+        <v>1.879230935228326</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.1085603199472825</v>
+        <v>1.887705424578266</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.833662119064843</v>
+        <v>4.505377704876573</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.887705424578266</v>
+        <v>1.355779726699888e-15</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.505377704876573</v>
+        <v>182527267.5743821</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.355779726699888e-15</v>
+        <v>6.581933100430127e-07</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>182527267.5743821</v>
+        <v>45.16943315140671</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>6.581933100430127e-07</v>
+        <v>0.0001295157299237303</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>45.16943315140671</v>
+        <v>7.45094583539249</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001295157299237303</v>
+        <v>1.367771735217958</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>7.45094583539249</v>
+        <v>0.007190272174319774</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.367771735217958</v>
+        <v>3.069451723162234</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.007190272174319774</v>
+        <v>0.9658286292370067</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.069451723162234</v>
+        <v>1.597794961434858</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9658286292370067</v>
+        <v>14</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.597794961434858</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.2440942325735302</v>
       </c>
     </row>
@@ -3742,72 +3688,66 @@
         <v>2.488521893761862e-06</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>3.725817326350428</v>
+        <v>1.617627551322943e-05</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>14.39403049672502</v>
+        <v>5.151680780067647e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.617627551322943e-05</v>
+        <v>-0.1081919017084954</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.151680780067647e-06</v>
+        <v>0.3107997900478864</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.1081919017084954</v>
+        <v>0.1080394525614818</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.3107997900478864</v>
+        <v>1.874523045078792</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.1080394525614818</v>
+        <v>1.890175903673487</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.826093650155717</v>
+        <v>4.671220734828817</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.890175903673487</v>
+        <v>1.631295818706892e-15</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.671220734828817</v>
+        <v>150737640.5595533</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.631295818706892e-15</v>
+        <v>7.952374937541358e-07</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>150737640.5595533</v>
+        <v>37.06603651929001</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>7.952374937541358e-07</v>
+        <v>0.0001454050960789821</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>37.06603651929001</v>
+        <v>7.842009223619815</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001454050960789821</v>
+        <v>1.455679636017088</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>7.842009223619815</v>
+        <v>0.0089419929937723</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.455679636017088</v>
+        <v>3.028397915863195</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.0089419929937723</v>
+        <v>0.9640446345804045</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.028397915863195</v>
+        <v>1.594612333389866</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9640446345804045</v>
+        <v>14</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.594612333389866</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.2203123040607275</v>
       </c>
     </row>
@@ -3822,72 +3762,66 @@
         <v>1.82526729084021e-06</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3.699435635388198</v>
+        <v>1.186519811801449e-05</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>14.22040443628312</v>
+        <v>4.920698373052008e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.186519811801449e-05</v>
+        <v>-0.1078868416740524</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>4.920698373052008e-06</v>
+        <v>0.3093893190209779</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.1078868416740524</v>
+        <v>0.107099587017724</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.3093893190209779</v>
+        <v>1.872912482925754</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.107099587017724</v>
+        <v>1.864668646166779</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.822670103328393</v>
+        <v>4.793809277158058</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.864668646166779</v>
+        <v>2.130835928549479e-15</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.793809277158058</v>
+        <v>115639963.5709017</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>2.130835928549479e-15</v>
+        <v>1.035177104446484e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>115639963.5709017</v>
+        <v>28.49481904117</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>1.035177104446484e-06</v>
+        <v>0.0001562838583071253</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>28.49481904117</v>
+        <v>9.712273692062292</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001562838583071253</v>
+        <v>1.239219599949122</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>9.712273692062292</v>
+        <v>0.01474198446232012</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.239219599949122</v>
+        <v>2.882559692904185</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01474198446232012</v>
+        <v>0.9618251034756979</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.882559692904185</v>
+        <v>1.575017735096411</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9618251034756979</v>
+        <v>14</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.575017735096411</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.2138291417979258</v>
       </c>
     </row>
@@ -3902,72 +3836,66 @@
         <v>1.341765793227961e-06</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>3.657058890139792</v>
+        <v>8.708347456326779e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>13.92394037507031</v>
+        <v>4.751939569585048e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>8.708347456326779e-06</v>
+        <v>-0.1070629227243741</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>4.751939569585048e-06</v>
+        <v>0.3065867654889638</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.1070629227243741</v>
+        <v>0.105198518228423</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.3065867654889638</v>
+        <v>1.858494671470035</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.105198518228423</v>
+        <v>1.795150568458598</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.803560737459001</v>
+        <v>4.608850279822907</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.795150568458598</v>
+        <v>3.032397881114365e-15</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.608850279822907</v>
+        <v>77444030.4096611</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>3.032397881114365e-15</v>
+        <v>1.538252747863251e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>77444030.4096611</v>
+        <v>18.18704235230939</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>1.538252747863251e-06</v>
+        <v>0.0001461113971623299</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>18.18704235230939</v>
+        <v>10.71097336219902</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001461113971623299</v>
+        <v>1.071999857091153</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>10.71097336219902</v>
+        <v>0.01676262278731679</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.071999857091153</v>
+        <v>2.799593666153724</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01676262278731679</v>
+        <v>0.9618623917843745</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>2.799593666153724</v>
+        <v>1.616913120591903</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9618623917843745</v>
+        <v>14</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.616913120591903</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.221566584284148</v>
       </c>
     </row>
@@ -3982,72 +3910,66 @@
         <v>9.903266341476333e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>3.596716818540191</v>
+        <v>6.401967159134979e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>13.48909187689483</v>
+        <v>4.629062247035456e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>6.401967159134979e-06</v>
+        <v>-0.1053918568805367</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.629062247035456e-06</v>
+        <v>0.3019076303662499</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.1053918568805367</v>
+        <v>0.1020024805984946</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.3019076303662499</v>
+        <v>1.758023299955208</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.1020024805984946</v>
+        <v>1.815529032610034</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.686563917012509</v>
+        <v>4.316735598572255</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.815529032610034</v>
+        <v>3.456690429327625e-15</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>4.316735598572255</v>
+        <v>70568261.82298048</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>3.456690429327625e-15</v>
+        <v>1.624165961331208e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>70568261.82298048</v>
+        <v>17.2139020720408</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>1.624165961331208e-06</v>
+        <v>0.0001370093370005096</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>17.2139020720408</v>
+        <v>9.776964737450379</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001370093370005096</v>
+        <v>1.105130802790012</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>9.776964737450379</v>
+        <v>0.01309659092330701</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.105130802790012</v>
+        <v>2.899882945307204</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01309659092330701</v>
+        <v>0.9575932953266204</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>2.899882945307204</v>
+        <v>1.709594900744269</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9575932953266204</v>
+        <v>15</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.709594900744269</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.2171228583854132</v>
       </c>
     </row>
@@ -4062,72 +3984,66 @@
         <v>7.355186540157625e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>3.518851898039817</v>
+        <v>4.72466622353967e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>12.93262755392161</v>
+        <v>4.539889114037596e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>4.72466622353967e-06</v>
+        <v>-0.1029277371006595</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.539889114037596e-06</v>
+        <v>0.2952982937587541</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.1029277371006595</v>
+        <v>0.09755384367620276</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.2952982937587541</v>
+        <v>1.717271372056448</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.09755384367620276</v>
+        <v>1.574179083882211</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.636803286751868</v>
+        <v>5.02874055241973</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.574179083882211</v>
+        <v>6.072023157274253e-15</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>5.02874055241973</v>
+        <v>41675110.5386872</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>6.072023157274253e-15</v>
+        <v>2.732828364579003e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>41675110.5386872</v>
+        <v>10.54597991873397</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>2.732828364579003e-06</v>
+        <v>0.000165467460842718</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>10.54597991873397</v>
+        <v>8.100992541989159</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.000165467460842718</v>
+        <v>1.788832641778549</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>8.100992541989159</v>
+        <v>0.01085898085002344</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.788832641778549</v>
+        <v>3.017515318522656</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.01085898085002344</v>
+        <v>0.9527624825032037</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.017515318522656</v>
+        <v>1.82074349440366</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9527624825032037</v>
+        <v>15</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.82074349440366</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1802737771817404</v>
       </c>
     </row>
@@ -4142,72 +4058,66 @@
         <v>5.508692429177173e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>3.423021804238147</v>
+        <v>3.511449944451578e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>12.28334002691112</v>
+        <v>4.475117062050199e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>3.511449944451578e-06</v>
+        <v>-0.1001277891347544</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.475117062050199e-06</v>
+        <v>0.2873574864809119</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.1001277891347544</v>
+        <v>0.09237640970124596</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.2873574864809119</v>
+        <v>1.696897350257818</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.09237640970124596</v>
+        <v>1.498605431258616</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.611791647794647</v>
+        <v>4.288321343901965</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.498605431258616</v>
+        <v>1.177166007440999e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>4.288321343901965</v>
+        <v>22149521.85800885</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.177166007440999e-14</v>
+        <v>5.137063294969168e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>22149521.85800885</v>
+        <v>5.775191953891521</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>5.137063294969168e-06</v>
+        <v>0.0001987219883450227</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>5.775191953891521</v>
+        <v>8.725815020039951</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001987219883450227</v>
+        <v>1.826625532433941</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>8.725815020039951</v>
+        <v>0.01513066193994043</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.826625532433941</v>
+        <v>2.881778552048389</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01513066193994043</v>
+        <v>0.9509773039834816</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.881778552048389</v>
+        <v>1.809017496077509</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9509773039834816</v>
+        <v>15</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.809017496077509</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.150031896726634</v>
       </c>
     </row>
@@ -4222,72 +4132,66 @@
         <v>4.165624836702663e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>3.300244974467744</v>
+        <v>2.636624266490212e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>11.50255234952141</v>
+        <v>4.427674666767159e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.636624266490212e-06</v>
+        <v>-0.09760729550547143</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.427674666767159e-06</v>
+        <v>0.2794441388675833</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.09760729550547143</v>
+        <v>0.08741053519929531</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.2794441388675833</v>
+        <v>1.654523095161578</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.08741053519929531</v>
+        <v>1.486537596392824</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.563009106180053</v>
+        <v>3.953711185142846</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.486537596392824</v>
+        <v>1.384849164116566e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.953711185142846</v>
+        <v>19537248.92486575</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.384849164116566e-14</v>
+        <v>5.748451637113085e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>19537248.92486575</v>
+        <v>5.286025976652896</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>5.748451637113085e-06</v>
+        <v>0.00017499442951711</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>5.286025976652896</v>
+        <v>9.925595558998529</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.00017499442951711</v>
+        <v>1.291275423096584</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>9.925595558998529</v>
+        <v>0.01724000447038799</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.291275423096584</v>
+        <v>2.778289343520419</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01724000447038799</v>
+        <v>0.9493183180327794</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.778289343520419</v>
+        <v>1.801789106280038</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9493183180327794</v>
+        <v>15</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.801789106280038</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.1493502475098157</v>
       </c>
     </row>
@@ -4302,72 +4206,66 @@
         <v>3.185653410743106e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>3.136280004281824</v>
+        <v>1.995166822988897e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>10.49425504434515</v>
+        <v>4.392554040586035e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.995166822988897e-06</v>
+        <v>-0.09478964768767591</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.392554040586035e-06</v>
+        <v>0.2694732294811678</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.09478964768767591</v>
+        <v>0.08140865224538432</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.2694732294811678</v>
+        <v>1.624977952704471</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.08140865224538432</v>
+        <v>1.480822851486281</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.527916896960639</v>
+        <v>3.97769791171719</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.480822851486281</v>
+        <v>1.368197401377436e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>3.97769791171719</v>
+        <v>19954674.18837925</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.368197401377436e-14</v>
+        <v>5.582953451710633e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>19954674.18837925</v>
+        <v>5.448011851086724</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>5.582953451710633e-06</v>
+        <v>0.0001705960234888979</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>5.448011851086724</v>
+        <v>10.93187201212993</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001705960234888979</v>
+        <v>1.089974163419099</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>10.93187201212993</v>
+        <v>0.0203872186464014</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.089974163419099</v>
+        <v>2.52120514623606</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.0203872186464014</v>
+        <v>0.9495257275204332</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>2.52120514623606</v>
+        <v>1.848020902769796</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9495257275204332</v>
+        <v>18</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.848020902769796</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.1581300189887401</v>
       </c>
     </row>
@@ -4382,72 +4280,66 @@
         <v>2.474649299534741e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2.935636889602519</v>
+        <v>1.523331672356353e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>9.362622473666566</v>
+        <v>4.366429477563268e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.523331672356353e-06</v>
+        <v>-0.09094794540763325</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.366429477563268e-06</v>
+        <v>0.2563973335071381</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.09094794540763325</v>
+        <v>0.07384288806230747</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.2563973335071381</v>
+        <v>1.640250143247082</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.07384288806230747</v>
+        <v>1.531764782082205</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.540647681855324</v>
+        <v>3.94663304617783</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.531764782082205</v>
+        <v>1.389820969001237e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>3.94663304617783</v>
+        <v>19807386.68467876</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.389820969001237e-14</v>
+        <v>5.65364968552518e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>19807386.68467876</v>
+        <v>5.452720288228142</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>5.65364968552518e-06</v>
+        <v>0.0001710966987771237</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>5.452720288228142</v>
+        <v>10.33074654115369</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001710966987771237</v>
+        <v>1.141683991632145</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>10.33074654115369</v>
+        <v>0.01826017953231218</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.141683991632145</v>
+        <v>2.523129468685656</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.01826017953231218</v>
+        <v>0.9486304640538668</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>2.523129468685656</v>
+        <v>1.842194742571719</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9486304640538668</v>
+        <v>18</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.842194742571719</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.1568036032947507</v>
       </c>
     </row>
@@ -4462,72 +4354,66 @@
         <v>1.957734835234887e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2.700369835116328</v>
+        <v>1.185993044146101e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>8.242754378924058</v>
+        <v>4.346888238600875e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.185993044146101e-06</v>
+        <v>-0.08640811079671183</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.346888238600875e-06</v>
+        <v>0.2462985680225207</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.08640811079671183</v>
+        <v>0.06799596663826411</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.2462985680225207</v>
+        <v>1.649791609547854</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.06799596663826411</v>
+        <v>1.585109658677824</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.551374679149958</v>
+        <v>3.863364471833299</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.585109658677824</v>
+        <v>1.450377295446039e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>3.863364471833299</v>
+        <v>18414196.78368736</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.450377295446039e-14</v>
+        <v>6.078396965734689e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>18414196.78368736</v>
+        <v>4.917977669602308</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>6.078396965734689e-06</v>
+        <v>0.0001714231335144935</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>4.917977669602308</v>
+        <v>8.840279882098331</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001714231335144935</v>
+        <v>1.305755533667815</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>8.840279882098331</v>
+        <v>0.01339681189154683</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.305755533667815</v>
+        <v>2.690171378744859</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.01339681189154683</v>
+        <v>0.9463082384065087</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>2.690171378744859</v>
+        <v>1.834805467516067</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.9463082384065087</v>
+        <v>17</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.834805467516067</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.1466480615526009</v>
       </c>
     </row>
@@ -4542,72 +4428,66 @@
         <v>1.574076606534477e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2.390262184697923</v>
+        <v>9.425988221858207e-07</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>6.92850924441575</v>
+        <v>4.332157821743506e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>9.425988221858207e-07</v>
+        <v>-0.08101915527048084</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.332157821743506e-06</v>
+        <v>0.2421765335280475</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.08101915527048084</v>
+        <v>0.06509597338425964</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.2421765335280475</v>
+        <v>1.601600340278286</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.06509597338425964</v>
+        <v>1.573966762344772</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.509135178919941</v>
+        <v>3.865895434530931</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.573966762344772</v>
+        <v>1.448478822370433e-14</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>3.865895434530931</v>
+        <v>18721929.72510684</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1.448478822370433e-14</v>
+        <v>5.812302704339946e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>18721929.72510684</v>
+        <v>5.077072573524583</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>5.812302704339946e-06</v>
+        <v>0.0001758512616523264</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>5.077072573524583</v>
+        <v>8.489309225959778</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001758512616523264</v>
+        <v>1.436263884249838</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>8.489309225959778</v>
+        <v>0.01267331398913599</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.436263884249838</v>
+        <v>2.749007761678013</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.01267331398913599</v>
+        <v>0.9393400676585244</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>2.749007761678013</v>
+        <v>1.842272221270324</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9393400676585244</v>
+        <v>18</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.842272221270324</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.1417853512852549</v>
       </c>
     </row>
@@ -4622,72 +4502,66 @@
         <v>1.289574351661322e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1.9814223441013</v>
+        <v>7.543329368675919e-07</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>5.324127784883146</v>
+        <v>4.321040726643728e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>7.543329368675919e-07</v>
+        <v>-0.07511074431021898</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.321040726643728e-06</v>
+        <v>0.2362125004148761</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.07511074431021898</v>
+        <v>0.06133221275423944</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.2362125004148761</v>
+        <v>1.574688856789782</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.06133221275423944</v>
+        <v>1.178309372142861</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.588825798913475</v>
+        <v>24.94172872579557</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.178309372142861</v>
+        <v>2.880179585756108e-14</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>24.94172872579557</v>
+        <v>295568901.3568503</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>2.880179585756108e-14</v>
+        <v>3.600571961428982e-07</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>295568901.3568503</v>
+        <v>2516.152980808014</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>3.600571961428982e-07</v>
+        <v>0.0001705163934495996</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>2516.152980808014</v>
+        <v>9.863035120578957</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.0001705163934495996</v>
+        <v>1.201633835721569</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>9.863035120578957</v>
+        <v>0.01658774298111038</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.201633835721569</v>
+        <v>2.66851870981647</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.01658774298111038</v>
+        <v>0.9284054993207753</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>2.66851870981647</v>
+        <v>0.9413703288901353</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9284054993207753</v>
+        <v>7</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>0.9413703288901353</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.1625021357956433</v>
       </c>
     </row>
@@ -4702,72 +4576,66 @@
         <v>1.082210796770674e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1.504364033431184</v>
+        <v>6.1257609141165e-07</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>3.662996570053025</v>
+        <v>4.312493044659356e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>6.1257609141165e-07</v>
+        <v>-0.07030186036482312</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.312493044659356e-06</v>
+        <v>0.2320539599658377</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.07030186036482312</v>
+        <v>0.0587083324270194</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.2320539599658377</v>
+        <v>1.559757028859374</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.0587083324270194</v>
+        <v>1.178767414281093</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.567929196126853</v>
+        <v>24.02334945680974</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.178767414281093</v>
+        <v>3.10459928402269e-14</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>24.02334945680974</v>
+        <v>274214783.5527864</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>3.10459928402269e-14</v>
+        <v>3.880910227687488e-07</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>274214783.5527864</v>
+        <v>2334.464547101645</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>3.880910227687488e-07</v>
+        <v>0.0001583166700619058</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>2334.464547101645</v>
+        <v>10.79451544285304</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001583166700619058</v>
+        <v>1.156077506955508</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>10.79451544285304</v>
+        <v>0.01844730594684001</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.156077506955508</v>
+        <v>3.158827947418653</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.01844730594684001</v>
+        <v>0.9251372864734154</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.158827947418653</v>
+        <v>0.9199907794455978</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9251372864734154</v>
+        <v>7</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>0.9199907794455978</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.8673872647437073</v>
       </c>
     </row>
@@ -4782,72 +4650,66 @@
         <v>9.294526523229828e-08</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.982164814890125</v>
+        <v>5.078824013204544e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.990865997625384</v>
+        <v>4.305507818196141e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>5.078824013204544e-07</v>
+        <v>-0.06987864145007332</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.305507818196141e-06</v>
+        <v>0.2373972625996896</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.06987864145007332</v>
+        <v>0.06116033779903664</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.2373972625996896</v>
+        <v>1.551910645302267</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.06116033779903664</v>
+        <v>1.181866968278436</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.557282374751812</v>
+        <v>23.57367876457774</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.181866968278436</v>
+        <v>3.224170116089235e-14</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>23.57367876457774</v>
+        <v>264072756.8373333</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>3.224170116089235e-14</v>
+        <v>4.029931766562959e-07</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>264072756.8373333</v>
+        <v>2248.356359403992</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>4.029931766562959e-07</v>
+        <v>0.0001061925118260543</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>2248.356359403992</v>
+        <v>9.787154304288714</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001061925118260543</v>
+        <v>1.220552641308873</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>9.787154304288714</v>
+        <v>0.01017200967160502</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.220552641308873</v>
+        <v>4.817273133978833</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01017200967160502</v>
+        <v>0.9253302570816259</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>4.817273133978833</v>
+        <v>0.9469813868293371</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9253302570816259</v>
+        <v>7</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>0.9469813868293371</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>2.905608894206376</v>
       </c>
     </row>
@@ -4862,72 +4724,66 @@
         <v>8.193343048743986e-08</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.475555944960426</v>
+        <v>4.207705897537045e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>0.4308018024012092</v>
+        <v>4.299405531424633e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4.207705897537045e-07</v>
+        <v>-0.07002497356372701</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.299405531424633e-06</v>
+        <v>0.243606241834358</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.07002497356372701</v>
+        <v>0.0641714997401093</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.243606241834358</v>
+        <v>1.538922600278941</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.0641714997401093</v>
+        <v>1.182378607780511</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.540033229425075</v>
+        <v>23.44827358556853</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.182378607780511</v>
+        <v>3.269153858160883e-14</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>23.44827358556853</v>
+        <v>260447366.0388734</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>3.269153858160883e-14</v>
+        <v>4.085953994086766e-07</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>260447366.0388734</v>
+        <v>2217.559594625073</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>4.085953994086766e-07</v>
+        <v>5.813421223031162e-05</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>2217.559594625073</v>
+        <v>9.178272277253981</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>5.813421223031162e-05</v>
+        <v>1.278920401471381</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>9.178272277253981</v>
+        <v>0.004897265685547296</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.278920401471381</v>
+        <v>6.390376579078523</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.004897265685547296</v>
+        <v>0.9264678140394408</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>6.390376579078523</v>
+        <v>0.9949784754291845</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9264678140394408</v>
+        <v>8</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>0.9949784754291845</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>5.35646280059036</v>
       </c>
     </row>
@@ -4942,72 +4798,66 @@
         <v>7.47648728118976e-08</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.09923706820295117</v>
+        <v>3.456152982308333e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-0.6701227184880389</v>
+        <v>4.294069163413257e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>3.456152982308333e-07</v>
+        <v>-0.06597753146691138</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.294069163413257e-06</v>
+        <v>0.2411289664425519</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.06597753146691138</v>
+        <v>0.06243764086013732</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.2411289664425519</v>
+        <v>1.537097581096124</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.06243764086013732</v>
+        <v>1.184583573196064</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.536008950014732</v>
+        <v>23.05604077729298</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.184583573196064</v>
+        <v>3.459766579817766e-14</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>23.05604077729298</v>
+        <v>246116256.824627</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>3.459766579817766e-14</v>
+        <v>4.323892418470805e-07</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>246116256.824627</v>
+        <v>2095.691740716915</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>4.323892418470805e-07</v>
+        <v>3.589939009925915e-05</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>2095.691740716915</v>
+        <v>9.210565757124744</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>3.589939009925915e-05</v>
+        <v>1.304222324645279</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.210565757124744</v>
+        <v>0.003045507583593295</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.304222324645279</v>
+        <v>7.24495136075299</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.003045507583593295</v>
+        <v>0.9254153421263386</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>7.24495136075299</v>
+        <v>0.9784440153232402</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.9254153421263386</v>
+        <v>8</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>0.9784440153232402</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>6.910413927846736</v>
       </c>
     </row>
@@ -5022,72 +4872,66 @@
         <v>7.067276581182464e-08</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>-0.08915610258349607</v>
+        <v>2.842702808650931e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.206835171174164</v>
+        <v>4.28953408444487e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2.842702808650931e-07</v>
+        <v>-0.0589840765808242</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.28953408444487e-06</v>
+        <v>0.2337529743062033</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.0589840765808242</v>
+        <v>0.0580805225950294</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.2337529743062033</v>
+        <v>1.545775768911431</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.0580805225950294</v>
+        <v>1.188986677613259</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.542373107876527</v>
+        <v>23.24316171495795</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.188986677613259</v>
+        <v>3.404284556960647e-14</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>23.24316171495795</v>
+        <v>250177940.4300115</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>3.404284556960647e-14</v>
+        <v>4.254029169643811e-07</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>250177940.4300115</v>
+        <v>2130.707725281836</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>4.254029169643811e-07</v>
+        <v>3.355576968993211e-05</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>2130.707725281836</v>
+        <v>9.820578984827133</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>3.355576968993211e-05</v>
+        <v>1.290115763261783</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>9.820578984827133</v>
+        <v>0.003236244987745009</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.290115763261783</v>
+        <v>7.334209031243043</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.003236244987745009</v>
+        <v>0.9272268225025165</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>7.334209031243043</v>
+        <v>0.9299885953271027</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9272268225025165</v>
+        <v>8</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>0.9299885953271027</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>7.120565800633115</v>
       </c>
     </row>
@@ -5102,72 +4946,66 @@
         <v>6.862754056981916e-08</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>-0.1332559863054893</v>
+        <v>2.382186792309353e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.396487001379315</v>
+        <v>4.285713896867784e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.382186792309353e-07</v>
+        <v>-0.05058489362111615</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.285713896867784e-06</v>
+        <v>0.2272416419258344</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05058489362111615</v>
+        <v>0.05417724039391</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.2272416419258344</v>
+        <v>1.540272908565976</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.05417724039391</v>
+        <v>1.189042896968422</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.534057737090857</v>
+        <v>23.13495199327049</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.189042896968422</v>
+        <v>3.496886671801204e-14</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>23.13495199327049</v>
+        <v>243559211.9939477</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>3.496886671801204e-14</v>
+        <v>4.369597955858252e-07</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>243559211.9939477</v>
+        <v>2074.391280934016</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>4.369597955858252e-07</v>
+        <v>5.00807663564908e-05</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>2074.391280934016</v>
+        <v>9.717835294793501</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>5.00807663564908e-05</v>
+        <v>1.276575177677594</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>9.717835294793501</v>
+        <v>0.004729443418551011</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.276575177677594</v>
+        <v>6.662339212130567</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.004729443418551011</v>
+        <v>0.926611500026094</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>6.662339212130567</v>
+        <v>0.9931251019046429</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.926611500026094</v>
+        <v>8</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>0.9931251019046429</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>5.77242030919411</v>
       </c>
     </row>
@@ -5182,72 +5020,66 @@
         <v>6.752032141944848e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-0.1056267287660053</v>
+        <v>2.075404123263116e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.446876501853582</v>
+        <v>4.28264035668484e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.075404123263116e-07</v>
+        <v>-0.03965654233775952</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.28264035668484e-06</v>
+        <v>0.2281192952816837</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.03965654233775952</v>
+        <v>0.05359945531116903</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.2281192952816837</v>
+        <v>1.552145654286617</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.05359945531116903</v>
+        <v>1.231094974672423</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.547681748649402</v>
+        <v>25.34743020459742</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.231094974672423</v>
+        <v>3.976473827655908e-14</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>25.34743020459742</v>
+        <v>222207662.0848915</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>3.976473827655908e-14</v>
+        <v>4.787708103595125e-07</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>222207662.0848915</v>
+        <v>1963.4334630526</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>4.787708103595125e-07</v>
+        <v>6.149212006416254e-05</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>1963.4334630526</v>
+        <v>9.347626882496982</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>6.149212006416254e-05</v>
+        <v>1.266897158946304</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>9.347626882496982</v>
+        <v>0.005373066358519514</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.266897158946304</v>
+        <v>6.169193172278648</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.005373066358519514</v>
+        <v>0.9353727907361371</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>6.169193172278648</v>
+        <v>0.972998729948881</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9353727907361371</v>
+        <v>8</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>0.972998729948881</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>4.799902791505652</v>
       </c>
     </row>
@@ -5262,72 +5094,66 @@
         <v>6.670111841044226e-08</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>-0.05546434459931855</v>
+        <v>2.059294014818951e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.448842101501488</v>
+        <v>4.280164864586863e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.059294014818951e-07</v>
+        <v>-0.03622481803684984</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.280164864586863e-06</v>
+        <v>0.2304325706830383</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.03622481803684984</v>
+        <v>0.05440885491008887</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.2304325706830383</v>
+        <v>1.564664442535985</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.05440885491008887</v>
+        <v>1.322680289425402</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.583777185976593</v>
+        <v>21.81085181388865</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.322680289425402</v>
+        <v>5.630806750143204e-14</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>21.81085181388865</v>
+        <v>217891304.0903068</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>5.630806750143204e-14</v>
+        <v>4.88446800415786e-07</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>217891304.0903068</v>
+        <v>2673.316746120278</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>4.88446800415786e-07</v>
+        <v>3.803468062921248e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>2673.316746120278</v>
+        <v>9.653194781973392</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>3.803468062921248e-05</v>
+        <v>1.264363911274482</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>9.653194781973392</v>
+        <v>0.003544230126582154</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.264363911274482</v>
+        <v>6.992735247506259</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.003544230126582154</v>
+        <v>0.932641422071492</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>6.992735247506259</v>
+        <v>0.9832650612484261</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.932641422071492</v>
+        <v>10</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>0.9832650612484261</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>6.256667928620262</v>
       </c>
     </row>
@@ -5342,72 +5168,66 @@
         <v>6.609309300283149e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.00188399422044557</v>
+        <v>2.059294014818951e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.444706997797933</v>
+        <v>4.277668656800384e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.059294014818951e-07</v>
+        <v>-0.03945602729804915</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.277668656800384e-06</v>
+        <v>0.2333745573038188</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.03945602729804915</v>
+        <v>0.05601833174761734</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.2333745573038188</v>
+        <v>1.56669449055901</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.05601833174761734</v>
+        <v>1.326072809013642</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.585234801142281</v>
+        <v>22.70038179634725</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.326072809013642</v>
+        <v>5.198158928878731e-14</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>22.70038179634725</v>
+        <v>236032322.2471574</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>5.198158928878731e-14</v>
+        <v>4.50904939269593e-07</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>236032322.2471574</v>
+        <v>2895.95968769347</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>4.50904939269593e-07</v>
+        <v>2.445201131494301e-05</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>2895.95968769347</v>
+        <v>9.387871458723263</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>2.445201131494301e-05</v>
+        <v>1.456668840555237</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.387871458723263</v>
+        <v>0.002155007852819826</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.456668840555237</v>
+        <v>7.636101347540961</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.002155007852819826</v>
+        <v>0.9329364892867998</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>7.636101347540961</v>
+        <v>0.9764077966774938</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9329364892867998</v>
+        <v>11</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>0.9764077966774938</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>7.326973374202633</v>
       </c>
     </row>
@@ -5422,72 +5242,66 @@
         <v>6.549117292133353e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.05728799677504499</v>
+        <v>2.059294014818951e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.440460313197286</v>
+        <v>4.274961442638352e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.059294014818951e-07</v>
+        <v>-0.04208686099676599</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.274961442638352e-06</v>
+        <v>0.2354039286213576</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.04208686099676599</v>
+        <v>0.05718618803624809</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.2354039286213576</v>
+        <v>1.567637801382829</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.05718618803624809</v>
+        <v>1.315995108264505</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.587039975012956</v>
+        <v>22.74769908051466</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.315995108264505</v>
+        <v>5.176556132934384e-14</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>22.74769908051466</v>
+        <v>237017849.4710919</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>5.176556132934384e-14</v>
+        <v>4.49031367849785e-07</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>237017849.4710919</v>
+        <v>2908.057801060708</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>4.49031367849785e-07</v>
+        <v>1.976687275614263e-05</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>2908.057801060708</v>
+        <v>8.254008913101842</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>1.976687275614263e-05</v>
+        <v>1.662902565830902</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>8.254008913101842</v>
+        <v>0.001346690615286346</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.662902565830902</v>
+        <v>7.668955280876381</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.001346690615286346</v>
+        <v>0.9336986080723899</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>7.668955280876381</v>
+        <v>0.9587167763763116</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9336986080723899</v>
+        <v>11</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>0.9587167763763116</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>7.23064509237889</v>
       </c>
     </row>
@@ -5502,72 +5316,66 @@
         <v>6.464874182976588e-08</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.1093616285115251</v>
+        <v>2.059294014818951e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.427697799812842</v>
+        <v>4.272321378755769e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.059294014818951e-07</v>
+        <v>-0.03745983863145892</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.272321378755769e-06</v>
+        <v>0.2425419420294414</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.03745983863145892</v>
+        <v>0.06021546366120202</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.2425419420294414</v>
+        <v>1.568888295198061</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.06021546366120202</v>
+        <v>1.33021132172654</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.613651704128095</v>
+        <v>21.72808715645876</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.33021132172654</v>
+        <v>5.69261526180266e-14</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>21.72808715645876</v>
+        <v>219490372.7971474</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>5.69261526180266e-14</v>
+        <v>4.848358018922827e-07</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>219490372.7971474</v>
+        <v>2742.475680558081</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>4.848358018922827e-07</v>
+        <v>2.198541925906964e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>2742.475680558081</v>
+        <v>6.488694059484326</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>2.198541925906964e-05</v>
+        <v>1.655567945990697</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>6.488694059484326</v>
+        <v>0.0009256554180157026</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>1.655567945990697</v>
+        <v>7.339624468801486</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.0009256554180157026</v>
+        <v>0.934771105476458</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>7.339624468801486</v>
+        <v>0.9599481123041178</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.934771105476458</v>
+        <v>9</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>0.9599481123041178</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>6.514623263107007</v>
       </c>
     </row>
@@ -5582,72 +5390,66 @@
         <v>6.353994156020661e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.1557606954600781</v>
+        <v>2.059294014818951e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.389368878463562</v>
+        <v>4.270155003671265e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.059294014818951e-07</v>
+        <v>-0.03077117835039061</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.270155003671265e-06</v>
+        <v>0.2517466303325208</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.03077117835039061</v>
+        <v>0.06432039912279143</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.2517466303325208</v>
+        <v>1.563306047680761</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.06432039912279143</v>
+        <v>1.327816659862238</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.580347816075029</v>
+        <v>21.22888519656428</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.327816659862238</v>
+        <v>5.96348931228828e-14</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>21.22888519656428</v>
+        <v>209521239.1802847</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>5.96348931228828e-14</v>
+        <v>5.07902987566185e-07</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>209521239.1802847</v>
+        <v>2617.921098615272</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>5.07902987566185e-07</v>
+        <v>2.594721753844403e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>2617.921098615272</v>
+        <v>6.360369493499977</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>2.594721753844403e-05</v>
+        <v>1.402139471058565</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>6.360369493499977</v>
+        <v>0.001049676524900497</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.402139471058565</v>
+        <v>7.055919980182062</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.001049676524900497</v>
+        <v>0.933491269361309</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>7.055919980182062</v>
+        <v>1.011581657128966</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.933491269361309</v>
+        <v>9</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.011581657128966</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>6.100791607827084</v>
       </c>
     </row>
@@ -5662,72 +5464,66 @@
         <v>6.241248048903309e-08</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.1987748229982582</v>
+        <v>2.059294014818951e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.334317320218169</v>
+        <v>4.268270512322927e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.059294014818951e-07</v>
+        <v>-0.03032260245488504</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>4.268270512322927e-06</v>
+        <v>0.2567585768260232</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.03032260245488504</v>
+        <v>0.06683909688624722</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.2567585768260232</v>
+        <v>1.560140831081719</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.06683909688624722</v>
+        <v>1.326434663635023</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.576592026681037</v>
+        <v>20.37162038062629</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.326434663635023</v>
+        <v>6.475952772167481e-14</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>20.37162038062629</v>
+        <v>192942283.8239976</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>6.475952772167481e-14</v>
+        <v>5.515452323424753e-07</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>192942283.8239976</v>
+        <v>2410.785122321087</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>5.515452323424753e-07</v>
+        <v>2.902506885935578e-05</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>2410.785122321087</v>
+        <v>6.837030216789771</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>2.902506885935578e-05</v>
+        <v>1.553064359898135</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>6.837030216789771</v>
+        <v>0.001356776326757586</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.553064359898135</v>
+        <v>6.95303746616876</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.001356776326757586</v>
+        <v>0.9325176166698336</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>6.95303746616876</v>
+        <v>0.9837340658528347</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9325176166698336</v>
+        <v>9</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>0.9837340658528347</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>5.969287864004501</v>
       </c>
     </row>
@@ -5742,72 +5538,66 @@
         <v>6.151331779545419e-08</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.2550974717655018</v>
+        <v>2.059294014818951e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.275464572932328</v>
+        <v>4.266207762414701e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.059294014818951e-07</v>
+        <v>-0.03696903009279694</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>4.266207762414701e-06</v>
+        <v>0.2677565515475139</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.03696903009279694</v>
+        <v>0.07303479195606402</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.2677565515475139</v>
+        <v>1.577308119602644</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.07303479195606402</v>
+        <v>1.407448480192588</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.606528852848591</v>
+        <v>18.29873949212262</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.407448480192588</v>
+        <v>8.026246126111887e-14</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>18.29873949212262</v>
+        <v>188398362.8807311</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>8.026246126111887e-14</v>
+        <v>5.648664729204863e-07</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>188398362.8807311</v>
+        <v>2848.831235968764</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>5.648664729204863e-07</v>
+        <v>3.765463677370095e-05</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>2848.831235968764</v>
+        <v>6.571992458816649</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>3.765463677370095e-05</v>
+        <v>1.65034092616832</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>6.571992458816649</v>
+        <v>0.001626344612971151</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.65034092616832</v>
+        <v>6.551230421518689</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.001626344612971151</v>
+        <v>0.9380927869781155</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>6.551230421518689</v>
+        <v>0.9465760900673799</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9380927869781155</v>
+        <v>12</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>0.9465760900673799</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>4.983693914318046</v>
       </c>
     </row>
@@ -5822,72 +5612,66 @@
         <v>6.12709144069887e-08</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.3163597649723826</v>
+        <v>2.081628500278527e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.222732483103267</v>
+        <v>4.263702263540872e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.081628500278527e-07</v>
+        <v>-0.04489983652758225</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>4.263702263540872e-06</v>
+        <v>0.2789032227812683</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.04489983652758225</v>
+        <v>0.07977745051594246</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.2789032227812683</v>
+        <v>1.579946701403382</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.07977745051594246</v>
+        <v>1.338557574327651</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.597209849442061</v>
+        <v>20.10178925148195</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.338557574327651</v>
+        <v>6.650976159652642e-14</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>20.10178925148195</v>
+        <v>187951637.4087177</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>6.650976159652642e-14</v>
+        <v>5.662097337302809e-07</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>187951637.4087177</v>
+        <v>2349.51173368943</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>5.662097337302809e-07</v>
+        <v>4.474665605920232e-05</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>2349.51173368943</v>
+        <v>7.408244507178339</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>4.474665605920232e-05</v>
+        <v>1.608776012193442</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>7.408244507178339</v>
+        <v>0.002455789856397972</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.608776012193442</v>
+        <v>6.141960072221781</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.002455789856397972</v>
+        <v>0.9456790111209817</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>6.141960072221781</v>
+        <v>0.9803709983259009</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9456790111209817</v>
+        <v>13</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>0.9803709983259009</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>4.278943222165614</v>
       </c>
     </row>
@@ -5902,72 +5686,66 @@
         <v>6.192151304139442e-08</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.3397173299167315</v>
+        <v>2.413881214660201e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-1.138995871044372</v>
+        <v>4.260709914725491e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.413881214660201e-07</v>
+        <v>-0.05217924377661141</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>4.260709914725491e-06</v>
+        <v>0.2830757822570023</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05217924377661141</v>
+        <v>0.08284218196744314</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.2830757822570023</v>
+        <v>1.584963229807812</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.08284218196744314</v>
+        <v>1.349383857399661</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.60317020154282</v>
+        <v>20.32166154736993</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.349383857399661</v>
+        <v>6.507832914330808e-14</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>20.32166154736993</v>
+        <v>192083459.6170138</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>6.507832914330808e-14</v>
+        <v>5.540353685875735e-07</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>192083459.6170138</v>
+        <v>2401.13364121417</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>5.540353685875735e-07</v>
+        <v>3.719705702502293e-05</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>2401.13364121417</v>
+        <v>7.590400149385326</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>3.719705702502293e-05</v>
+        <v>1.627591024986445</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>7.590400149385326</v>
+        <v>0.002143077731640077</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.627591024986445</v>
+        <v>6.518265813711947</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.002143077731640077</v>
+        <v>0.9473516920604849</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>6.518265813711947</v>
+        <v>0.9208673875520552</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9473516920604849</v>
+        <v>13</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>0.9208673875520552</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>5.109835419915617</v>
       </c>
     </row>
@@ -5982,72 +5760,66 @@
         <v>6.321397872216891e-08</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.3119966128612143</v>
+        <v>2.600869418542863e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.9906386233180378</v>
+        <v>4.257284003617697e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.600869418542863e-07</v>
+        <v>-0.0565368020671111</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4.257284003617697e-06</v>
+        <v>0.2790189233355796</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.0565368020671111</v>
+        <v>0.08104698179260568</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.2790189233355796</v>
+        <v>1.590304536720682</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.08104698179260568</v>
+        <v>1.335171599978357</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.61081084151036</v>
+        <v>20.37212377498576</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.335171599978357</v>
+        <v>6.475632735056276e-14</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>20.37212377498576</v>
+        <v>193033470.8046806</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>6.475632735056276e-14</v>
+        <v>5.513114681849871e-07</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>193033470.8046806</v>
+        <v>2412.945144331738</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>5.513114681849871e-07</v>
+        <v>2.817133609436186e-05</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>2412.945144331738</v>
+        <v>7.494121620264632</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>2.817133609436186e-05</v>
+        <v>1.594631494896081</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>7.494121620264632</v>
+        <v>0.001582154601609956</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.594631494896081</v>
+        <v>7.107215582335528</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.001582154601609956</v>
+        <v>0.9491418799549834</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>7.107215582335528</v>
+        <v>1.006959521061301</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.9491418799549834</v>
+        <v>13</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.006959521061301</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>6.316611036572707</v>
       </c>
     </row>
@@ -6424,7 +6196,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.52425073134962</v>
+        <v>1.528111240301122</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.648828063891405</v>
@@ -6513,7 +6285,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.55117371427334</v>
+        <v>1.548601456124915</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.269038918555342</v>
@@ -6602,7 +6374,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.568673291704245</v>
+        <v>1.568558180044737</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.802560366061189</v>
@@ -6691,7 +6463,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.537995855598085</v>
+        <v>1.539338683259053</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.58671104134564</v>
@@ -6780,7 +6552,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.505528621773403</v>
+        <v>1.517905835604333</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.34753888596095</v>
@@ -6869,7 +6641,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.492702074959263</v>
+        <v>1.502159020959946</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.405011084515355</v>
@@ -6958,7 +6730,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.498457969531849</v>
+        <v>1.507929133738792</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.373220501116954</v>
@@ -7047,7 +6819,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.493890840638592</v>
+        <v>1.505383199048492</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.354587702368368</v>
@@ -7136,7 +6908,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.509087757937081</v>
+        <v>1.516464251510528</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.35472254986956</v>
@@ -7225,7 +6997,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.512735615737212</v>
+        <v>1.526027806536537</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.356255244747183</v>
@@ -7314,7 +7086,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.523543187412391</v>
+        <v>1.534589414284023</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.302373475476517</v>
@@ -7403,7 +7175,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.523246371787779</v>
+        <v>1.541626635324537</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.462544699321195</v>
@@ -7492,7 +7264,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.523882825713959</v>
+        <v>1.545266426338726</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.285238352088071</v>
@@ -7581,7 +7353,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.545586041482941</v>
+        <v>1.570128338071721</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.29843593375867</v>
@@ -7670,7 +7442,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.549794340503239</v>
+        <v>1.579526231621801</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.414406916914194</v>
@@ -7759,7 +7531,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.563076252830223</v>
+        <v>1.595764425824643</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.443444993039348</v>
@@ -7848,7 +7620,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.596592335805172</v>
+        <v>1.630861718476199</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.261965621565253</v>
@@ -7937,7 +7709,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.624258081698369</v>
+        <v>1.661465523640806</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.48641514381156</v>
@@ -8026,7 +7798,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.650765855806538</v>
+        <v>1.690889456367312</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.178415225311691</v>
@@ -8115,7 +7887,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.714631078440006</v>
+        <v>1.749818883823751</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.059708823637872</v>
@@ -8204,7 +7976,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.753122857527608</v>
+        <v>1.79176826786424</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.191401599530766</v>
@@ -8293,7 +8065,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.762486716227374</v>
+        <v>1.801459463557569</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.748494825268469</v>
@@ -8382,7 +8154,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.763551089591402</v>
+        <v>1.800892111555948</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.960626763126281</v>
@@ -8471,7 +8243,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.740954524638592</v>
+        <v>1.780507530288967</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.508748336352586</v>
@@ -8560,7 +8332,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.75973551567095</v>
+        <v>1.800316288502003</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.14974114922717</v>
@@ -8649,7 +8421,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.769994552630934</v>
+        <v>1.809920984941581</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.127460576695696</v>
@@ -8738,7 +8510,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.77916095037879</v>
+        <v>1.817405711312415</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.199950385588704</v>
@@ -8827,7 +8599,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.777522779909187</v>
+        <v>1.813786646249879</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.071409971894928</v>
@@ -8916,7 +8688,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.787257219231493</v>
+        <v>1.823269840061579</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.273127771039632</v>
@@ -9005,7 +8777,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.814911055720583</v>
+        <v>1.849758310829389</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.273461318804087</v>
@@ -9094,7 +8866,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.818163313540003</v>
+        <v>1.849793010723727</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.263015038444971</v>
@@ -9183,7 +8955,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.803756339946197</v>
+        <v>1.836744794865615</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.177352418774234</v>
@@ -9272,7 +9044,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.806387236791289</v>
+        <v>1.840188156537489</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.215850500834319</v>
@@ -9361,7 +9133,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.833068626551203</v>
+        <v>1.863062801013284</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.085037028386784</v>
@@ -9450,7 +9222,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.831567833550964</v>
+        <v>1.858230247907867</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.178663816315343</v>
@@ -9539,7 +9311,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.829700174341589</v>
+        <v>1.856333589865511</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.298953039386556</v>
@@ -9628,7 +9400,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.827129112487186</v>
+        <v>1.852511060561527</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.230693424676267</v>
@@ -9717,7 +9489,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.880307328276164</v>
+        <v>1.901946404538885</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.492329137942317</v>
@@ -9806,7 +9578,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.921332275700054</v>
+        <v>1.942108713623713</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.659145731469134</v>
@@ -9895,7 +9667,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.916963562301462</v>
+        <v>1.940696614861487</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.070468191678475</v>
@@ -9984,7 +9756,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.884432291679156</v>
+        <v>1.919841980682929</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.461997686128871</v>
@@ -10073,7 +9845,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.8828903581006</v>
+        <v>1.917256319039412</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.278920625657222</v>
@@ -10162,7 +9934,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.887499956404471</v>
+        <v>1.920328531541541</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.271504866164504</v>
@@ -10251,7 +10023,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.865873239927498</v>
+        <v>1.895061847713683</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.250221123457694</v>
@@ -10340,7 +10112,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.778268447119148</v>
+        <v>1.814341552581021</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.162987665666082</v>
@@ -10429,7 +10201,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.777474817189646</v>
+        <v>1.811954108414455</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.06597492540231</v>
@@ -10518,7 +10290,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.784644066807659</v>
+        <v>1.814705018759959</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.187085651567547</v>
@@ -10607,7 +10379,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.780135268732771</v>
+        <v>1.807315112923471</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.039216729202346</v>
@@ -10696,7 +10468,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.784402173508127</v>
+        <v>1.81068453555148</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.403288154171917</v>
@@ -10785,7 +10557,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.787059891236725</v>
+        <v>1.819050609393932</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.419939472888557</v>
@@ -10874,7 +10646,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.784854146553655</v>
+        <v>1.816456319675232</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.240377654914905</v>
@@ -10963,7 +10735,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.78211147384407</v>
+        <v>1.815505016869744</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.080069473696278</v>
@@ -11052,7 +10824,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.770023490840917</v>
+        <v>1.79980573435395</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.946757369181794</v>
@@ -11141,7 +10913,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.749216429133265</v>
+        <v>1.7764167273274</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.37870267964773</v>
@@ -11230,7 +11002,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.740054927894755</v>
+        <v>1.761488357577738</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.924186259676286</v>
@@ -11319,7 +11091,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.731502457227957</v>
+        <v>1.748026481900871</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.864516301305509</v>
@@ -11408,7 +11180,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.689909716991518</v>
+        <v>1.710075547384411</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.084710777751674</v>
@@ -11497,7 +11269,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.667892725736937</v>
+        <v>1.686818299050088</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.003489730746886</v>
@@ -11586,7 +11358,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.679061408010717</v>
+        <v>1.708822957444886</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.861908439957642</v>
@@ -11675,7 +11447,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.746580375639118</v>
+        <v>1.773595607257698</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.038601701595226</v>
@@ -11764,7 +11536,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.743044333249731</v>
+        <v>1.770611790633338</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.098402308859941</v>
@@ -11853,7 +11625,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.762826719937551</v>
+        <v>1.783414318008141</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.998238252448707</v>
@@ -11942,7 +11714,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.71596333174552</v>
+        <v>1.743939447013273</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.630344121150298</v>
@@ -12031,7 +11803,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.531531985047075</v>
+        <v>1.566085820996158</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>1.807459001224805</v>
@@ -12120,7 +11892,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.503527926236787</v>
+        <v>1.542197981548477</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>1.801528710787166</v>
@@ -12209,7 +11981,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.50047476251627</v>
+        <v>1.538772310605598</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>1.820447786356158</v>
@@ -12298,7 +12070,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.497281388699871</v>
+        <v>1.53558454707811</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>1.833951160083655</v>
@@ -12387,7 +12159,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.488916015948326</v>
+        <v>1.523221259166692</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>1.823888295339706</v>
@@ -12476,7 +12248,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.485283548292637</v>
+        <v>1.519991852610354</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>1.84311651814114</v>
@@ -12565,7 +12337,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.494192456902253</v>
+        <v>1.528985135693263</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>1.865447523215233</v>
@@ -12654,7 +12426,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.508795799257529</v>
+        <v>1.545134821351676</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>1.870668832850458</v>
@@ -12743,7 +12515,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.508182498714495</v>
+        <v>1.544183463131825</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>1.885934352428112</v>
@@ -12832,7 +12604,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.519821857966682</v>
+        <v>1.551270780846946</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>1.867492161170055</v>
@@ -12921,7 +12693,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.524538884825712</v>
+        <v>1.552974441569225</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.887066882024718</v>
@@ -13010,7 +12782,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.530649223732851</v>
+        <v>1.558866171306538</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.897524849094719</v>
@@ -13099,7 +12871,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.520929209652083</v>
+        <v>1.548310159727934</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.913464744972483</v>
@@ -13188,7 +12960,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.497748446477704</v>
+        <v>1.529259308962257</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.848862017695637</v>
@@ -13277,7 +13049,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.511178953098651</v>
+        <v>1.537781393624529</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.862604231643357</v>
@@ -13366,7 +13138,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.638595954431084</v>
+        <v>1.651399779057475</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.493290997142117</v>
@@ -13455,7 +13227,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.629152937972043</v>
+        <v>1.636068745655739</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.054971725910896</v>
@@ -13544,7 +13316,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.639216746547949</v>
+        <v>1.641900658098318</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.656784938444212</v>
@@ -13830,7 +13602,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.761203474599499</v>
+        <v>1.755503466654029</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.144891240393421</v>
@@ -13919,7 +13691,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.792544827028863</v>
+        <v>1.789401177970228</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.11803961932009</v>
@@ -14008,7 +13780,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.813918369842269</v>
+        <v>1.817314649871562</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.92893424856732</v>
@@ -14097,7 +13869,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.829812795227802</v>
+        <v>1.839109222606417</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.337713929666414</v>
@@ -14186,7 +13958,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.834473546021072</v>
+        <v>1.838774315443557</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.206076130831719</v>
@@ -14275,7 +14047,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.837296422016786</v>
+        <v>1.841252753422358</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.547204271201343</v>
@@ -14364,7 +14136,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.833629374450175</v>
+        <v>1.836747169538679</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.88956458118037</v>
@@ -14453,7 +14225,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.835211896826564</v>
+        <v>1.831696242233841</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>4.202833757603738</v>
@@ -14542,7 +14314,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.839391184689783</v>
+        <v>1.83508381314332</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.953440425163094</v>
@@ -14631,7 +14403,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.85942425306082</v>
+        <v>1.853736903806787</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.619348041033275</v>
@@ -14720,7 +14492,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.85752150220175</v>
+        <v>1.860833721496207</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.716131835659079</v>
@@ -14809,7 +14581,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.866482872771221</v>
+        <v>1.883584422401442</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.826127904490955</v>
@@ -14898,7 +14670,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.876750456116423</v>
+        <v>1.894434153100632</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.149619801178658</v>
@@ -14987,7 +14759,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.878812032197991</v>
+        <v>1.896468545124686</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.772491938263615</v>
@@ -15076,7 +14848,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.89330261823374</v>
+        <v>1.912496099645353</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.505423199051632</v>
@@ -15165,7 +14937,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.902735675819219</v>
+        <v>1.929615654162715</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.395589224338085</v>
@@ -15254,7 +15026,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.903982466724784</v>
+        <v>1.933949128226746</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.584965114432038</v>
@@ -15343,7 +15115,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.904778482463666</v>
+        <v>1.930235448429324</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.402867258248548</v>
@@ -15432,7 +15204,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.911396312393263</v>
+        <v>1.937473609737812</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.079423624619763</v>
@@ -15521,7 +15293,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.914431988401764</v>
+        <v>1.952831305806906</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.564855820889794</v>
@@ -15610,7 +15382,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.928952494082644</v>
+        <v>1.975042057593817</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.411310171629133</v>
@@ -15699,7 +15471,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.92642527961142</v>
+        <v>1.974336666371624</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.367175795163439</v>
@@ -15788,7 +15560,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.929918192664549</v>
+        <v>1.979877592433507</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.376516059035411</v>
@@ -15877,7 +15649,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.929638824213041</v>
+        <v>1.985010525515652</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.380249901644625</v>
@@ -15966,7 +15738,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.92938120970639</v>
+        <v>1.986188503748368</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.837569382754033</v>
@@ -16055,7 +15827,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.931353583974857</v>
+        <v>1.982883609512872</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.100860965820639</v>
@@ -16144,7 +15916,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.934895958500454</v>
+        <v>1.985895243910833</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.26031812338586</v>
@@ -16233,7 +16005,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.927015402932969</v>
+        <v>1.977213325888555</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.396779625077591</v>
@@ -16322,7 +16094,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.92585237637656</v>
+        <v>1.979428925884175</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.421556590828501</v>
@@ -16411,7 +16183,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.920360769943958</v>
+        <v>1.969790974786273</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.572756205715559</v>
@@ -16500,7 +16272,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.915899748324171</v>
+        <v>1.956346302834142</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.788203783287367</v>
@@ -16589,7 +16361,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.901058570757403</v>
+        <v>1.935481921929773</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.384362311145866</v>
@@ -16678,7 +16450,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.895382758769105</v>
+        <v>1.930380967180555</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.026195060804029</v>
@@ -16767,7 +16539,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.88153481703397</v>
+        <v>1.912514763036221</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.020170081446863</v>
@@ -16856,7 +16628,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.869626466926431</v>
+        <v>1.889290167921764</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.389510394842673</v>
@@ -16945,7 +16717,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.858234266710576</v>
+        <v>1.867752488417104</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.171857320122049</v>
@@ -17034,7 +16806,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.855116641396175</v>
+        <v>1.85970135534911</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.358605557104322</v>
@@ -17123,7 +16895,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.847852418449069</v>
+        <v>1.850253803257747</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.314088150150559</v>
@@ -17212,7 +16984,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.840663220964307</v>
+        <v>1.827020894871707</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.447249655656754</v>
@@ -17301,7 +17073,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.827896614798237</v>
+        <v>1.806709198173981</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.549292251880932</v>
@@ -17390,7 +17162,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.796103256413644</v>
+        <v>1.774473831570903</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.618960535831436</v>
@@ -17479,7 +17251,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.761046433702707</v>
+        <v>1.715115637620985</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.517792846806898</v>
@@ -17568,7 +17340,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.735906126867589</v>
+        <v>1.679957884763761</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.440993481388108</v>
@@ -17657,7 +17429,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.699522467135158</v>
+        <v>1.630331659460572</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.039685369406571</v>
@@ -17746,7 +17518,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.676685452006136</v>
+        <v>1.61456885237306</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.021724937323976</v>
@@ -17835,7 +17607,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.674060270561541</v>
+        <v>1.611902309924326</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.124683264357311</v>
@@ -17924,7 +17696,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.67720767091091</v>
+        <v>1.618277072071881</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.430652174082363</v>
@@ -18013,7 +17785,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.665614812596156</v>
+        <v>1.603092934406969</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.0687410631479</v>
@@ -18102,7 +17874,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.662226355556436</v>
+        <v>1.597532170468699</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.868994434510053</v>
@@ -18191,7 +17963,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.664007487832806</v>
+        <v>1.602434142307063</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.996135397279644</v>
@@ -18280,7 +18052,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.663325588458183</v>
+        <v>1.604147209494572</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.266139325006119</v>
@@ -18369,7 +18141,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.670229802928169</v>
+        <v>1.609645042381746</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.241047213891176</v>
@@ -18458,7 +18230,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.668176792729477</v>
+        <v>1.603187882778966</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.393548557470805</v>
@@ -18547,7 +18319,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.651944022506758</v>
+        <v>1.597771427770726</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.199528874414469</v>
@@ -18636,7 +18408,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.645382105619698</v>
+        <v>1.590690512123941</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.066340383986586</v>
@@ -18725,7 +18497,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.65335530885405</v>
+        <v>1.596413471273783</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.241414217485275</v>
@@ -18814,7 +18586,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.646881695687427</v>
+        <v>1.594819546260544</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.400930750570608</v>
@@ -18903,7 +18675,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.638348628094814</v>
+        <v>1.587415705339391</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.719136882539373</v>
@@ -18992,7 +18764,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.646475233035869</v>
+        <v>1.597831704560101</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.999223742050157</v>
@@ -19081,7 +18853,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.657315004611147</v>
+        <v>1.605349676707209</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.197906563100235</v>
@@ -19170,7 +18942,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.646198525559522</v>
+        <v>1.596322794845149</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.187469557148545</v>
@@ -19259,7 +19031,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.63742734908166</v>
+        <v>1.588831675173046</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.218185165757696</v>
@@ -19348,7 +19120,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.629979039968719</v>
+        <v>1.588354286117751</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.977287188319019</v>
@@ -19437,7 +19209,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.614159413185576</v>
+        <v>1.579561355489421</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.656184428307009</v>
@@ -19526,7 +19298,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.608422468436298</v>
+        <v>1.575965033407978</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.632170406502156</v>
@@ -19615,7 +19387,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.599668360086318</v>
+        <v>1.571019049746633</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.71259298594331</v>
@@ -19704,7 +19476,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.590413210096402</v>
+        <v>1.559951039903609</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.777518217845759</v>
@@ -19793,7 +19565,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.591131079966472</v>
+        <v>1.556668898399005</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.751843128398868</v>
@@ -19882,7 +19654,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.595284098071961</v>
+        <v>1.560403613338934</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.63293936774379</v>
@@ -19971,7 +19743,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.599282155843234</v>
+        <v>1.562526447994455</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.532474670794337</v>
@@ -20060,7 +19832,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.603351150752817</v>
+        <v>1.56666473678306</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.425564759748798</v>
@@ -20149,7 +19921,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.58590759491024</v>
+        <v>1.554369014632498</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.699131270786381</v>
@@ -20238,7 +20010,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.603133127603193</v>
+        <v>1.564978479578837</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.676801291442974</v>
@@ -20327,7 +20099,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.597389943626902</v>
+        <v>1.560971946985436</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.737705786500495</v>
@@ -20416,7 +20188,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.594568730164765</v>
+        <v>1.558494050340837</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.607314896480126</v>
@@ -20505,7 +20277,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.600417304368692</v>
+        <v>1.565585840205415</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.664212833922194</v>
@@ -20594,7 +20366,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.567003349589964</v>
+        <v>1.544711959171779</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.547939617846636</v>
@@ -20683,7 +20455,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.54668321050099</v>
+        <v>1.52552303881943</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.471292091594423</v>
@@ -20772,7 +20544,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.543809136658146</v>
+        <v>1.52076018168076</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.466838208072813</v>
@@ -20861,7 +20633,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.526973210667354</v>
+        <v>1.506775431957586</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.52640518737723</v>
@@ -20950,7 +20722,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.526864401047344</v>
+        <v>1.503202775731861</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.469075697254359</v>
@@ -21236,7 +21008,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.767688415584404</v>
+        <v>1.740635954752385</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.604728461178954</v>
@@ -21325,7 +21097,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.786480459469514</v>
+        <v>1.756597735484942</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.277972215362831</v>
@@ -21414,7 +21186,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.79368079355907</v>
+        <v>1.765343073167928</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.611814750630403</v>
@@ -21503,7 +21275,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.800207994299713</v>
+        <v>1.774915777482141</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.521663429938642</v>
@@ -21592,7 +21364,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.781406168600533</v>
+        <v>1.750787803059273</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.976139088321736</v>
@@ -21681,7 +21453,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.769463031436238</v>
+        <v>1.741864625716136</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.231720823893755</v>
@@ -21770,7 +21542,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.772179969087523</v>
+        <v>1.75456924477735</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.872673316818503</v>
@@ -21859,7 +21631,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.76760511826915</v>
+        <v>1.750635904980305</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.9760275186307</v>
@@ -21948,7 +21720,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.767222371086571</v>
+        <v>1.755093580542807</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.100455231450197</v>
@@ -22037,7 +21809,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.775009372514171</v>
+        <v>1.768890421602072</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.882693895305177</v>
@@ -22126,7 +21898,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.781243633841967</v>
+        <v>1.777066444594519</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.816069841481804</v>
@@ -22215,7 +21987,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.784798589946475</v>
+        <v>1.790139996663196</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.318922711064231</v>
@@ -22304,7 +22076,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.796232686226598</v>
+        <v>1.799350664904266</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.954464600620606</v>
@@ -22393,7 +22165,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.805380815723851</v>
+        <v>1.811006833357127</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.896904411845956</v>
@@ -22482,7 +22254,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.815249476304271</v>
+        <v>1.825798769770132</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.048061977748511</v>
@@ -22571,7 +22343,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.821023810300007</v>
+        <v>1.830049811416854</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.974536804199476</v>
@@ -22660,7 +22432,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.827408935846936</v>
+        <v>1.838772020234703</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.797866805133984</v>
@@ -22749,7 +22521,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.829575950925386</v>
+        <v>1.836150896619071</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.122069257206439</v>
@@ -22838,7 +22610,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.829335697686147</v>
+        <v>1.834087033850089</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.208480645575346</v>
@@ -22927,7 +22699,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.852677659828529</v>
+        <v>1.868123411842397</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.530716500086981</v>
@@ -23016,7 +22788,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.86780733878892</v>
+        <v>1.888170476505721</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.151230797180988</v>
@@ -23105,7 +22877,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.867690132468518</v>
+        <v>1.885451359543107</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.847359075168448</v>
@@ -23194,7 +22966,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.872788050461479</v>
+        <v>1.890460469695598</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.572387730737027</v>
@@ -23283,7 +23055,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.874297952049967</v>
+        <v>1.89107858898006</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.270369865434934</v>
@@ -23372,7 +23144,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.877068805847272</v>
+        <v>1.887430174761116</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.043793524856922</v>
@@ -23461,7 +23233,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.876700440943354</v>
+        <v>1.888208981550865</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.801073031330293</v>
@@ -23550,7 +23322,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.885872610738643</v>
+        <v>1.898307168140307</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.265191395983665</v>
@@ -23639,7 +23411,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.882107405107018</v>
+        <v>1.895166243373848</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.158618404587678</v>
@@ -23728,7 +23500,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.882172774604751</v>
+        <v>1.894478023615199</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.298419652346468</v>
@@ -23817,7 +23589,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.888708313577815</v>
+        <v>1.896091217208219</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.928988326910837</v>
@@ -23906,7 +23678,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.88152590560778</v>
+        <v>1.887534319013636</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>5.101337887720661</v>
@@ -23995,7 +23767,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.875546005957267</v>
+        <v>1.879808133003479</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.879797290043696</v>
@@ -24084,7 +23856,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.866084312397878</v>
+        <v>1.869550824467896</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.556265882103395</v>
@@ -24173,7 +23945,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.868908202332157</v>
+        <v>1.86939034270004</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.636968584000899</v>
@@ -24262,7 +24034,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.861929062454594</v>
+        <v>1.858177235775036</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.988777107837247</v>
@@ -24351,7 +24123,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.854837221948606</v>
+        <v>1.846682075274342</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.087450068188465</v>
@@ -24440,7 +24212,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.850667157832733</v>
+        <v>1.841440759277637</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.308413680435757</v>
@@ -24529,7 +24301,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.864624111898321</v>
+        <v>1.856013392881879</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.335633561173823</v>
@@ -24618,7 +24390,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.869839949917225</v>
+        <v>1.854151725015849</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.803882276027736</v>
@@ -24707,7 +24479,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.864963877408245</v>
+        <v>1.848828372764764</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>5.052403409293056</v>
@@ -24796,7 +24568,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.85958982915123</v>
+        <v>1.839463617584362</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.440423191045927</v>
@@ -24885,7 +24657,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.850117830860461</v>
+        <v>1.816628938211734</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.808521413687665</v>
@@ -24974,7 +24746,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.847879139335029</v>
+        <v>1.814698700373212</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.820155194548239</v>
@@ -25063,7 +24835,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.834384680803092</v>
+        <v>1.796116963193849</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.559409725401564</v>
@@ -25152,7 +24924,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.80067145736723</v>
+        <v>1.768178402798831</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.25573970018368</v>
@@ -25241,7 +25013,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.797187746627283</v>
+        <v>1.764130832110312</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.576741192906189</v>
@@ -25330,7 +25102,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.792194083791332</v>
+        <v>1.757479428576153</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.045937555849091</v>
@@ -25419,7 +25191,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.784636685910252</v>
+        <v>1.751106235014944</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.874938236309504</v>
@@ -25508,7 +25280,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.7844229418675</v>
+        <v>1.748474938390572</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.660871600514617</v>
@@ -25597,7 +25369,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.786339119513796</v>
+        <v>1.755404928612007</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.245970841440448</v>
@@ -25686,7 +25458,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.789937669089692</v>
+        <v>1.759533170833454</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.29254722480513</v>
@@ -25775,7 +25547,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.78890742783688</v>
+        <v>1.754059207886443</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.000611179996088</v>
@@ -25864,7 +25636,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.778878337683989</v>
+        <v>1.745648076977579</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.894456102021806</v>
@@ -25953,7 +25725,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.762922851278</v>
+        <v>1.730176748516639</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.271856992328368</v>
@@ -26042,7 +25814,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.758448347128396</v>
+        <v>1.726700877680236</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.208600605831738</v>
@@ -26131,7 +25903,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.751109925722925</v>
+        <v>1.715959849156896</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.70834535443286</v>
@@ -26220,7 +25992,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.739106129245267</v>
+        <v>1.705571761384003</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.536264304098953</v>
@@ -26309,7 +26081,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.730893810330951</v>
+        <v>1.688180479346908</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.809905126689541</v>
@@ -26398,7 +26170,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.737404916452907</v>
+        <v>1.699843441076421</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.012666104475843</v>
@@ -26487,7 +26259,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.760461255214801</v>
+        <v>1.716632506369675</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.699609913219367</v>
@@ -26576,7 +26348,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.754777784680828</v>
+        <v>1.712623928355669</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.719219755933981</v>
@@ -26665,7 +26437,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.768608566088277</v>
+        <v>1.725027544544782</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.751471741714274</v>
@@ -26754,7 +26526,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.776823219758913</v>
+        <v>1.729823831563715</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.694474556083733</v>
@@ -26843,7 +26615,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.775055666472518</v>
+        <v>1.734372733568889</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.292598510213458</v>
@@ -26932,7 +26704,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.760650912869707</v>
+        <v>1.72254802774753</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.266845134362791</v>
@@ -27021,7 +26793,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.749637574579649</v>
+        <v>1.715312302835822</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.345353987248348</v>
@@ -27110,7 +26882,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.751174367018975</v>
+        <v>1.717027760784727</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.318530183193529</v>
@@ -27199,7 +26971,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.748445205232251</v>
+        <v>1.710817495338591</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.34046413444009</v>
@@ -27288,7 +27060,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.755091246986002</v>
+        <v>1.717707195833718</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.323118973936009</v>
@@ -27377,7 +27149,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.758082993796445</v>
+        <v>1.712882726982281</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.35431504340118</v>
@@ -27466,7 +27238,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.764641959801412</v>
+        <v>1.71954324239508</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.388265305760859</v>
@@ -27555,7 +27327,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.767019388118783</v>
+        <v>1.727186544877265</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.375842332048325</v>
@@ -27644,7 +27416,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.767650888331385</v>
+        <v>1.721326435164614</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.371752067926555</v>
@@ -27733,7 +27505,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.773008064814215</v>
+        <v>1.728114628273657</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.360526216969527</v>
@@ -27822,7 +27594,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.778182422934897</v>
+        <v>1.735513376991361</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.35524961527697</v>
@@ -27911,7 +27683,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.779165587437021</v>
+        <v>1.7399333818306</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.386215034087085</v>
@@ -28000,7 +27772,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.766367050986172</v>
+        <v>1.726436403648461</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.337436291629956</v>
@@ -28089,7 +27861,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.769671118215002</v>
+        <v>1.733255937096372</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.425082798047379</v>
@@ -28178,7 +27950,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.777731513129305</v>
+        <v>1.732914506456113</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.414877138018385</v>
@@ -28267,7 +28039,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.782596850679913</v>
+        <v>1.733494835834128</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.541658571427297</v>
@@ -28356,7 +28128,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.78862493043529</v>
+        <v>1.735375327628847</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.314822506612</v>
@@ -28642,7 +28414,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.772613909665772</v>
+        <v>1.732348770025973</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.882395637171089</v>
@@ -28731,7 +28503,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.78757702886917</v>
+        <v>1.752637783700425</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.719167737152448</v>
@@ -28820,7 +28592,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.797812698290841</v>
+        <v>1.764785661126582</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.745257463904649</v>
@@ -28909,7 +28681,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.796477792332405</v>
+        <v>1.766489454782949</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.575141742500987</v>
@@ -28998,7 +28770,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.785791500282908</v>
+        <v>1.750866034299472</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.987647589962564</v>
@@ -29087,7 +28859,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.771917707845031</v>
+        <v>1.733278218292448</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.752298454371532</v>
@@ -29176,7 +28948,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.786203746573218</v>
+        <v>1.747412942977479</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.271401637635768</v>
@@ -29265,7 +29037,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.784555227531267</v>
+        <v>1.746033295796102</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.558159772310405</v>
@@ -29354,7 +29126,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.788239679274887</v>
+        <v>1.757029114052578</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.488301764644985</v>
@@ -29443,7 +29215,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.788506178362438</v>
+        <v>1.765782413077953</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>4.155587389271663</v>
@@ -29532,7 +29304,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.797347041415255</v>
+        <v>1.772129554272591</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.548646866100987</v>
@@ -29621,7 +29393,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.793800740710757</v>
+        <v>1.770453441825281</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.560402773173106</v>
@@ -29710,7 +29482,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.800169949125423</v>
+        <v>1.775701766744543</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.65738766160169</v>
@@ -29799,7 +29571,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.812473469683198</v>
+        <v>1.785161861654472</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.682423379385161</v>
@@ -29888,7 +29660,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.818779830020798</v>
+        <v>1.789780508721961</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.35605832894285</v>
@@ -29977,7 +29749,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.816605745509268</v>
+        <v>1.78626702642184</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.046220407322961</v>
@@ -30066,7 +29838,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.82764640124843</v>
+        <v>1.78886672973143</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.715875766287331</v>
@@ -30155,7 +29927,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.836695870228401</v>
+        <v>1.798525005466775</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.182349872974564</v>
@@ -30244,7 +30016,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.844760375401325</v>
+        <v>1.802185069713907</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>4.541533133613515</v>
@@ -30333,7 +30105,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.851175314865197</v>
+        <v>1.811770152088083</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.652783018573127</v>
@@ -30422,7 +30194,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.864014938717691</v>
+        <v>1.833399250908951</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.92945826728557</v>
@@ -30511,7 +30283,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.858564806586338</v>
+        <v>1.829446220424953</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.552810248175967</v>
@@ -30600,7 +30372,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.863727441883281</v>
+        <v>1.839388309096506</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.235572245258545</v>
@@ -30689,7 +30461,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.869238254349378</v>
+        <v>1.838419595955755</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.930690022032527</v>
@@ -30778,7 +30550,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.869372801769553</v>
+        <v>1.835911827696338</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.288411512505279</v>
@@ -30867,7 +30639,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.870567753242013</v>
+        <v>1.839149125099132</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.217991835219531</v>
@@ -30956,7 +30728,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.872805264305672</v>
+        <v>1.842921674949112</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>4.27869212491756</v>
@@ -31045,7 +30817,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.867516140574308</v>
+        <v>1.839802407590188</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>4.865795775034518</v>
@@ -31134,7 +30906,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.864856534418607</v>
+        <v>1.831655578297887</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.73147595265642</v>
@@ -31223,7 +30995,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.876279075486918</v>
+        <v>1.839999171511673</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>4.049032127572175</v>
@@ -31312,7 +31084,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.86856012165062</v>
+        <v>1.828544609293719</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.906293904490101</v>
@@ -31401,7 +31173,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.860734664610451</v>
+        <v>1.819579650938954</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.992447349156887</v>
@@ -31490,7 +31262,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.854260599321895</v>
+        <v>1.808675776637647</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.128012930313785</v>
@@ -31579,7 +31351,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.860438235791209</v>
+        <v>1.815755774721333</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.501979209469415</v>
@@ -31668,7 +31440,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.857936224648644</v>
+        <v>1.817939570278239</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.374500741723903</v>
@@ -31757,7 +31529,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.855118724540752</v>
+        <v>1.811055791073673</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.864957903405942</v>
@@ -31846,7 +31618,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.85647021479459</v>
+        <v>1.812589789689549</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>4.409201760130078</v>
@@ -31935,7 +31707,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.866061449117359</v>
+        <v>1.821354541581474</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.286134717480046</v>
@@ -32024,7 +31796,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.870437003526521</v>
+        <v>1.824869070933653</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>4.89378757332298</v>
@@ -32113,7 +31885,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.873950776049916</v>
+        <v>1.827553405546068</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.842887373481409</v>
@@ -32202,7 +31974,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.87171558024433</v>
+        <v>1.823794778860032</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>5.086118388359349</v>
@@ -32291,7 +32063,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.87650663482735</v>
+        <v>1.821037668187667</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.379389570964377</v>
@@ -32380,7 +32152,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.87633633909486</v>
+        <v>1.826249538446781</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>5.098670612160557</v>
@@ -32469,7 +32241,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.873101478493371</v>
+        <v>1.826776319567544</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>5.027181480821542</v>
@@ -32558,7 +32330,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.847826938555274</v>
+        <v>1.80844076176177</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.840245844870157</v>
@@ -32647,7 +32419,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.852541087192132</v>
+        <v>1.82108136242334</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>4.381134318013578</v>
@@ -32736,7 +32508,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.85560577343596</v>
+        <v>1.824743129542447</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>4.828777407172048</v>
@@ -32825,7 +32597,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.85003262200842</v>
+        <v>1.817820109448218</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.489190725798282</v>
@@ -32914,7 +32686,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.846289340984381</v>
+        <v>1.806349198372843</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>4.361498618028651</v>
@@ -33003,7 +32775,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.842168639713292</v>
+        <v>1.796177649307531</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>4.459033069456813</v>
@@ -33092,7 +32864,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.838757810142018</v>
+        <v>1.797339583209553</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>4.246869472335436</v>
@@ -33181,7 +32953,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.842063891633557</v>
+        <v>1.792664063182686</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>4.194306476668542</v>
@@ -33270,7 +33042,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.838920886173738</v>
+        <v>1.78829869501804</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>4.354123791603204</v>
@@ -33359,7 +33131,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.835673563298711</v>
+        <v>1.780454880342306</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>4.188780991854169</v>
@@ -33448,7 +33220,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.836009880532654</v>
+        <v>1.779735150167818</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.795441839281079</v>
@@ -33537,7 +33309,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.839245464433733</v>
+        <v>1.778380976658123</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>4.073045577673079</v>
@@ -33626,7 +33398,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.833694621581301</v>
+        <v>1.772188965798681</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>4.370631108775321</v>
@@ -33715,7 +33487,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.830680845715973</v>
+        <v>1.76509769145202</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>4.219401427790538</v>
@@ -33804,7 +33576,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.834252856393557</v>
+        <v>1.770486010135417</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>4.446142813179572</v>
@@ -33893,7 +33665,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.857006256896715</v>
+        <v>1.784238532122008</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.630925767484919</v>
@@ -33982,7 +33754,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.851036531098804</v>
+        <v>1.777171023134979</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>4.153213547318239</v>
@@ -34071,7 +33843,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.856297093187883</v>
+        <v>1.780757954274226</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>4.280107028347332</v>
@@ -34160,7 +33932,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.855811504110642</v>
+        <v>1.784382758668228</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.011974924149741</v>
@@ -34249,7 +34021,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.837336214224113</v>
+        <v>1.77956475867518</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.522230372122058</v>
@@ -34338,7 +34110,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.837273894796844</v>
+        <v>1.783806003219755</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.553885241435761</v>
@@ -34427,7 +34199,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.839298274970595</v>
+        <v>1.789580054762593</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.536473048772104</v>
@@ -34516,7 +34288,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.841791103981797</v>
+        <v>1.797435150176629</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.527499583043255</v>
@@ -34605,7 +34377,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.839798011585638</v>
+        <v>1.792486761603403</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.570192886924583</v>
@@ -34694,7 +34466,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.843656985241776</v>
+        <v>1.803683882114846</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.626317128164248</v>
@@ -34783,7 +34555,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.839676345426385</v>
+        <v>1.794105608457471</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.641863101954089</v>
@@ -34872,7 +34644,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.840471541679886</v>
+        <v>1.799702904129981</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.57541994418102</v>
@@ -34961,7 +34733,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.839146737721769</v>
+        <v>1.804796153179498</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.64778032324068</v>
@@ -35050,7 +34822,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.843830347948377</v>
+        <v>1.809136487490807</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.717665856122565</v>
@@ -35139,7 +34911,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.850796735781366</v>
+        <v>1.816911539233007</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.684980390009767</v>
@@ -35228,7 +35000,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.857259615612123</v>
+        <v>1.829329008581335</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.772148939375524</v>
@@ -35317,7 +35089,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.860725917329339</v>
+        <v>1.837357236067945</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.788365333443688</v>
@@ -35406,7 +35178,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.865261791653923</v>
+        <v>1.843606464893108</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.84901714169385</v>
@@ -35495,7 +35267,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.868148900433046</v>
+        <v>1.853917917605895</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.944263339206357</v>
@@ -35584,7 +35356,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.892625183159951</v>
+        <v>1.870657280633996</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.746549363754608</v>
@@ -35673,7 +35445,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.901305968498426</v>
+        <v>1.87931478955334</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>4.278954071731683</v>
@@ -35762,7 +35534,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.904525100708839</v>
+        <v>1.881048075855542</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>4.178744246013696</v>
@@ -36048,7 +35820,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.658791950758285</v>
+        <v>1.625555619967746</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.096103596018585</v>
@@ -36137,7 +35909,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.688439138227651</v>
+        <v>1.659396200142169</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.901884593090925</v>
@@ -36226,7 +35998,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.731519509734629</v>
+        <v>1.696902995519237</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.168052804491048</v>
@@ -36315,7 +36087,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.731674906694976</v>
+        <v>1.6960470803462</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.434544510362482</v>
@@ -36404,7 +36176,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.716727634997812</v>
+        <v>1.675953162861315</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.812418572765494</v>
@@ -36493,7 +36265,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.699718820664348</v>
+        <v>1.651305191863032</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.892357535113345</v>
@@ -36582,7 +36354,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.700627507996345</v>
+        <v>1.653879428643923</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.388867962570594</v>
@@ -36671,7 +36443,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.705335540134616</v>
+        <v>1.658660289463944</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.46730623486967</v>
@@ -36760,7 +36532,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.712723785235776</v>
+        <v>1.660683511861397</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.510480460016532</v>
@@ -36849,7 +36621,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.728032662568859</v>
+        <v>1.674741650287969</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.788219660252963</v>
@@ -36938,7 +36710,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.730377901032965</v>
+        <v>1.684826071757648</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.835230230523293</v>
@@ -37027,7 +36799,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.736604573789315</v>
+        <v>1.695282723167447</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>4.012933523356303</v>
@@ -37116,7 +36888,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.746584359026891</v>
+        <v>1.710201826903307</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.917986662028381</v>
@@ -37205,7 +36977,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.750576823674963</v>
+        <v>1.717841245745414</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.481160075096779</v>
@@ -37294,7 +37066,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.756881609502717</v>
+        <v>1.723221183002403</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.719058780152557</v>
@@ -37383,7 +37155,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.769281031943759</v>
+        <v>1.74173387340476</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>4.043946587655715</v>
@@ -37472,7 +37244,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.751566692697695</v>
+        <v>1.718340050134057</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.869716752838305</v>
@@ -37561,7 +37333,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.748701564407557</v>
+        <v>1.713936314683788</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.790486064641049</v>
@@ -37650,7 +37422,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.745357584919081</v>
+        <v>1.708371339548542</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.132841595435241</v>
@@ -37739,7 +37511,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.752947570572874</v>
+        <v>1.718617288451288</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.279156562327426</v>
@@ -37828,7 +37600,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.754781414021971</v>
+        <v>1.724030409037709</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.120161026802801</v>
@@ -37917,7 +37689,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.747858400382019</v>
+        <v>1.715668078346136</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.019375485761877</v>
@@ -38006,7 +37778,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.740958087335521</v>
+        <v>1.716897741142345</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.265006347559111</v>
@@ -38095,7 +37867,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.733832317091909</v>
+        <v>1.712023549556336</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.189907404420931</v>
@@ -38184,7 +37956,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.737083236177495</v>
+        <v>1.71580525581261</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.309508244533341</v>
@@ -38273,7 +38045,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.731379349724723</v>
+        <v>1.705659836057327</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.329212970787358</v>
@@ -38362,7 +38134,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.725731410827447</v>
+        <v>1.699764291215279</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.973031300104821</v>
@@ -38451,7 +38223,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.710425146074962</v>
+        <v>1.685323153875346</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.101316995806657</v>
@@ -38540,7 +38312,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.688263490693378</v>
+        <v>1.660177641283836</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.359329739611164</v>
@@ -38629,7 +38401,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.689191435100287</v>
+        <v>1.661690535667516</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.115494800372503</v>
@@ -38718,7 +38490,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.698342771284732</v>
+        <v>1.651805452476347</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.616508529659204</v>
@@ -38807,7 +38579,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.698869666151796</v>
+        <v>1.644535217312818</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.933893128516011</v>
@@ -38896,7 +38668,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.690962277061792</v>
+        <v>1.637056156749049</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.177265651545365</v>
@@ -38985,7 +38757,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.678196210788636</v>
+        <v>1.624100697843642</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.477809696235969</v>
@@ -39074,7 +38846,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.674309947507603</v>
+        <v>1.620762946991254</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.558548013290695</v>
@@ -39163,7 +38935,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.678673168174087</v>
+        <v>1.626950474475305</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.507621579149679</v>
@@ -39252,7 +39024,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.683517875510038</v>
+        <v>1.628214550568363</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.338100646009889</v>
@@ -39341,7 +39113,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.684862472972054</v>
+        <v>1.627352811454237</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.32310610439724</v>
@@ -39430,7 +39202,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.684080041373365</v>
+        <v>1.623145187877234</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.497695583341413</v>
@@ -39519,7 +39291,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.682274610145339</v>
+        <v>1.619249303985468</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.545608786934204</v>
@@ -39608,7 +39380,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.677807256760259</v>
+        <v>1.616596014680743</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.495079076087059</v>
@@ -39697,7 +39469,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.679029735079517</v>
+        <v>1.614720000108956</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.737357759442401</v>
@@ -39786,7 +39558,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.687258234713484</v>
+        <v>1.620101734524661</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.504018291531242</v>
@@ -39875,7 +39647,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.675824888817616</v>
+        <v>1.611174752955461</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.111721914206333</v>
@@ -39964,7 +39736,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.667538192102026</v>
+        <v>1.606483438193208</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.378017716545922</v>
@@ -40053,7 +39825,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.658167898459932</v>
+        <v>1.608781793406242</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.694380576181571</v>
@@ -40142,7 +39914,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.660632167794664</v>
+        <v>1.616423242039688</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.979488827170758</v>
@@ -40231,7 +40003,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.655963737507584</v>
+        <v>1.609322000018748</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.970470630563283</v>
@@ -40320,7 +40092,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.654804505526247</v>
+        <v>1.60640209331312</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.996723643358609</v>
@@ -40409,7 +40181,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.663335004967715</v>
+        <v>1.611444503091321</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.903917946628032</v>
@@ -40498,7 +40270,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.66153409148729</v>
+        <v>1.605372603676353</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.131529570847073</v>
@@ -40587,7 +40359,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.661317116765616</v>
+        <v>1.60713528728691</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.981893856838586</v>
@@ -40676,7 +40448,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.663650353738528</v>
+        <v>1.613690981156614</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.020833233927659</v>
@@ -40765,7 +40537,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.661836745045647</v>
+        <v>1.616601086626115</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.941141009568481</v>
@@ -40854,7 +40626,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.652358151914896</v>
+        <v>1.612953606108007</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.89153988064463</v>
@@ -40943,7 +40715,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.645273106394205</v>
+        <v>1.603645777188346</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.030511715562032</v>
@@ -41032,7 +40804,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.631883307853493</v>
+        <v>1.595779049262297</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.166925457188176</v>
@@ -41121,7 +40893,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.63446006262885</v>
+        <v>1.603292859397607</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.686005847341045</v>
@@ -41210,7 +40982,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.648505106790192</v>
+        <v>1.61367318246671</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.963571033624815</v>
@@ -41299,7 +41071,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.654730673959879</v>
+        <v>1.615989272338064</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.048442017950243</v>
@@ -41388,7 +41160,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.650895942264264</v>
+        <v>1.61322142591487</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.305679429461693</v>
@@ -41477,7 +41249,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.646806014953567</v>
+        <v>1.608709128699577</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.39288478021931</v>
@@ -41566,7 +41338,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.63322207957618</v>
+        <v>1.596125955804127</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.696343772219831</v>
@@ -41655,7 +41427,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.574232015595786</v>
+        <v>1.551567588993071</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.341001120983484</v>
@@ -41744,7 +41516,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.571696344069975</v>
+        <v>1.551535339739391</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.35932400918095</v>
@@ -41833,7 +41605,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.563461936136213</v>
+        <v>1.545740058563577</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.372223404649192</v>
@@ -41922,7 +41694,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.555552262552779</v>
+        <v>1.535132588950265</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.356113725402577</v>
@@ -42011,7 +41783,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.564916412993718</v>
+        <v>1.544199935579288</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.399962363120486</v>
@@ -42100,7 +41872,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.561418116315729</v>
+        <v>1.535737855427658</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.326730569126959</v>
@@ -42189,7 +41961,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.566900616238588</v>
+        <v>1.541403782260221</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.380273170201553</v>
@@ -42278,7 +42050,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.560650936170301</v>
+        <v>1.538000024483858</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.343240422994727</v>
@@ -42367,7 +42139,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.548255598229648</v>
+        <v>1.52419419459211</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.356505544539248</v>
@@ -42456,7 +42228,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.547125685494934</v>
+        <v>1.516915334661582</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.321493566284688</v>
@@ -42545,7 +42317,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.535693429190338</v>
+        <v>1.506927311871981</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.31419768489137</v>
@@ -42634,7 +42406,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.53025751002837</v>
+        <v>1.504546103323753</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.324084988979691</v>
@@ -42723,7 +42495,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.5339589758614</v>
+        <v>1.509184383957745</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.352577394094924</v>
@@ -42812,7 +42584,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.53138872362157</v>
+        <v>1.5167385276819</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.403320448757827</v>
@@ -42901,7 +42673,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.536519654375886</v>
+        <v>1.524925266141191</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.410952374872171</v>
@@ -42990,7 +42762,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.571599925076848</v>
+        <v>1.556217485391145</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.686638560777133</v>
@@ -43079,7 +42851,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.553138857179411</v>
+        <v>1.542930409126458</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.526032503954671</v>
@@ -43168,7 +42940,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.555481092420997</v>
+        <v>1.54714204082119</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.56232027710539</v>
@@ -43454,7 +43226,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.508897535962031</v>
+        <v>1.519995190684294</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.603193451643874</v>
@@ -43543,7 +43315,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.547335101007797</v>
+        <v>1.555530497057538</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.255881170786489</v>
@@ -43632,7 +43404,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.579633868297655</v>
+        <v>1.588755750135594</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.910313469043986</v>
@@ -43721,7 +43493,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.571813737936474</v>
+        <v>1.586994978658013</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.747721400417262</v>
@@ -43810,7 +43582,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.571277107370264</v>
+        <v>1.594214728921383</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.788316213672634</v>
@@ -43899,7 +43671,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.566490018935916</v>
+        <v>1.586772699362764</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.861288244224895</v>
@@ -43988,7 +43760,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.585148726605475</v>
+        <v>1.605313433207085</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.958602505245042</v>
@@ -44077,7 +43849,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.593435005640846</v>
+        <v>1.615107359931578</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.928090838655018</v>
@@ -44166,7 +43938,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.618900658102113</v>
+        <v>1.638956197063177</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.962121711840227</v>
@@ -44255,7 +44027,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.621868970591881</v>
+        <v>1.647148298002418</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.896745861845464</v>
@@ -44344,7 +44116,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.651769740706904</v>
+        <v>1.675666077392933</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.821351902037001</v>
@@ -44433,7 +44205,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.651043258164286</v>
+        <v>1.674296910706919</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.019658217954551</v>
@@ -44522,7 +44294,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.648869102776903</v>
+        <v>1.670629920365056</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.010217264705974</v>
@@ -44611,7 +44383,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.666164395918696</v>
+        <v>1.687649568111532</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.615443061010337</v>
@@ -44700,7 +44472,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.671833912494036</v>
+        <v>1.694910000770898</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.818881576429581</v>
@@ -44789,7 +44561,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.675441055010635</v>
+        <v>1.703037662612817</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.004199895079462</v>
@@ -44878,7 +44650,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.705863833758669</v>
+        <v>1.730064852596574</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.572465939844036</v>
@@ -44967,7 +44739,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.727308499321023</v>
+        <v>1.751607753352779</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.916535341051485</v>
@@ -45056,7 +44828,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.750785645288484</v>
+        <v>1.770243897862341</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.501710190632688</v>
@@ -45145,7 +44917,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.785629860809404</v>
+        <v>1.79734864158983</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.275082097457653</v>
@@ -45234,7 +45006,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.81456080753406</v>
+        <v>1.829679928868183</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.23656357740448</v>
@@ -45323,7 +45095,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.815686035515776</v>
+        <v>1.833850855635624</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.959090489253387</v>
@@ -45412,7 +45184,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.815965158525319</v>
+        <v>1.840334776080245</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.164744335916276</v>
@@ -45501,7 +45273,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.807351456824382</v>
+        <v>1.83319787537257</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.755542472161785</v>
@@ -45590,7 +45362,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.825385040808732</v>
+        <v>1.848833836155497</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.29884271534481</v>
@@ -45679,7 +45451,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.830171232879098</v>
+        <v>1.8539538096159</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.381408614955727</v>
@@ -45768,7 +45540,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.834151660240964</v>
+        <v>1.861344730790974</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.441708564833021</v>
@@ -45857,7 +45629,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.831439676636722</v>
+        <v>1.857784878365804</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.110858866939359</v>
@@ -45946,7 +45718,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.829868594564465</v>
+        <v>1.851077897758329</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.49268532062711</v>
@@ -46035,7 +45807,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.853210159358606</v>
+        <v>1.867764186821895</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.399473656299772</v>
@@ -46124,7 +45896,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.858984951851542</v>
+        <v>1.872712371157466</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.137426809632576</v>
@@ -46213,7 +45985,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.837205468524972</v>
+        <v>1.848438550290868</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.452905032865991</v>
@@ -46302,7 +46074,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.841685870056373</v>
+        <v>1.85633067675903</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.475188433854211</v>
@@ -46391,7 +46163,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.86670351897539</v>
+        <v>1.872564218142567</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.171823342873726</v>
@@ -46480,7 +46252,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.872143714299471</v>
+        <v>1.881245166478962</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.378638778460404</v>
@@ -46569,7 +46341,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.870251632927926</v>
+        <v>1.881589724878037</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.305656723382225</v>
@@ -46658,7 +46430,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.868719440110024</v>
+        <v>1.879309296138954</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.556432664090934</v>
@@ -46747,7 +46519,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.906326651592506</v>
+        <v>1.907336877467017</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.521291943099836</v>
@@ -46836,7 +46608,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.934447422207661</v>
+        <v>1.930316713231712</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.486526148482846</v>
@@ -46925,7 +46697,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.93272748603702</v>
+        <v>1.935135954583158</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.460809619266623</v>
@@ -47014,7 +46786,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.907615166854439</v>
+        <v>1.918845273573777</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.121039664861829</v>
@@ -47103,7 +46875,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.90171709421913</v>
+        <v>1.908653237729991</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.121267706308242</v>
@@ -47192,7 +46964,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.907761285917765</v>
+        <v>1.919179802262915</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.353222772816565</v>
@@ -47281,7 +47053,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.901811192778722</v>
+        <v>1.916579770353677</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.354982703212627</v>
@@ -47370,7 +47142,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.824218045500226</v>
+        <v>1.854260165332455</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.340904579955459</v>
@@ -47459,7 +47231,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.821436842783724</v>
+        <v>1.850928578258408</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.993609429772293</v>
@@ -47548,7 +47320,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.83602705726924</v>
+        <v>1.864076844115983</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.298494062224562</v>
@@ -47637,7 +47409,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.829826297073011</v>
+        <v>1.85433136682786</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.232014572236772</v>
@@ -47726,7 +47498,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.820347750087864</v>
+        <v>1.843581782477123</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.021423692686664</v>
@@ -47815,7 +47587,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.812439942567512</v>
+        <v>1.830355306215663</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.262421293283825</v>
@@ -47904,7 +47676,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.803318185323627</v>
+        <v>1.817406419669858</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.294472079432842</v>
@@ -47993,7 +47765,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.802328068338699</v>
+        <v>1.815816408708174</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.825387178075362</v>
@@ -48082,7 +47854,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.796482930261747</v>
+        <v>1.804443567796537</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.077458149445425</v>
@@ -48171,7 +47943,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.772376466818308</v>
+        <v>1.78272812249084</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.219716673598376</v>
@@ -48260,7 +48032,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.764202773326239</v>
+        <v>1.768934944662456</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.098882124422587</v>
@@ -48349,7 +48121,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.76357406130919</v>
+        <v>1.763927511656244</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.922234464126467</v>
@@ -48438,7 +48210,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.743716266487896</v>
+        <v>1.744948987639568</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.878099751223605</v>
@@ -48527,7 +48299,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.730657301297373</v>
+        <v>1.72895525129667</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.036550201459832</v>
@@ -48616,7 +48388,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.731169916497129</v>
+        <v>1.733700117015353</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.644300947478029</v>
@@ -48705,7 +48477,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.800313763952861</v>
+        <v>1.788097721704545</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.891104614920964</v>
@@ -48794,7 +48566,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.806659178126736</v>
+        <v>1.794479215575177</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.867275013358707</v>
@@ -48883,7 +48655,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.814514841640018</v>
+        <v>1.808925357496155</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.97297063629202</v>
@@ -48972,7 +48744,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.780162160068725</v>
+        <v>1.784390555867616</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.978817543209375</v>
@@ -49061,7 +48833,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.78631306152567</v>
+        <v>1.79045074949112</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.741273634227426</v>
@@ -49150,7 +48922,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.754282540395748</v>
+        <v>1.771711643709575</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.870314647169577</v>
@@ -49239,7 +49011,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.74446879263318</v>
+        <v>1.765068222661843</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.990754220426679</v>
@@ -49328,7 +49100,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.736360502187675</v>
+        <v>1.760125132631905</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.889269678712553</v>
@@ -49417,7 +49189,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.736831475054466</v>
+        <v>1.758818115684734</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.79885101910836</v>
@@ -49506,7 +49278,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.736845983565523</v>
+        <v>1.758358949009699</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.10140247458538</v>
@@ -49595,7 +49367,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.743924079801607</v>
+        <v>1.767920605991958</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.104569071138314</v>
@@ -49684,7 +49456,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.744669465063212</v>
+        <v>1.771503835581721</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.077358754819251</v>
@@ -49773,7 +49545,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.734453815344335</v>
+        <v>1.76584665027065</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.068178669544399</v>
@@ -49862,7 +49634,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.749072034888484</v>
+        <v>1.778028678265635</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.237765783124951</v>
@@ -49951,7 +49723,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.755489249646802</v>
+        <v>1.784153169511937</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.137477693919021</v>
@@ -50040,7 +49812,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.768712056330982</v>
+        <v>1.803083171177269</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.355234531978375</v>
@@ -50129,7 +49901,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.76313617200131</v>
+        <v>1.797479610877942</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.241888403701592</v>
@@ -50218,7 +49990,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.76293632299782</v>
+        <v>1.797891430286003</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.375402515264998</v>
@@ -50307,7 +50079,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.776965057776049</v>
+        <v>1.812186808407949</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.3785941197911</v>
@@ -50396,7 +50168,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.787065113048602</v>
+        <v>1.821434946919199</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.904025282830796</v>
@@ -50485,7 +50257,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.801752726323101</v>
+        <v>1.836233806993486</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.400102442670749</v>
@@ -50574,7 +50346,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.819164155093436</v>
+        <v>1.850803992304659</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.051411719106407</v>
